--- a/2.Financial planning & analysis.xlsx
+++ b/2.Financial planning & analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CEF6AD-D4E2-A942-A483-C4CA58847C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9049A35F-B7C4-7541-B76D-5FE5B81C92D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/2.Financial planning & analysis.xlsx
+++ b/2.Financial planning & analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9049A35F-B7C4-7541-B76D-5FE5B81C92D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD62A2-E68C-0045-871E-AEB3F9E12C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/2.Financial planning & analysis.xlsx
+++ b/2.Financial planning & analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD62A2-E68C-0045-871E-AEB3F9E12C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B77B2B8-E90A-1A43-B7A2-D613A85C8418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="25" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="381">
   <si>
     <t>Guidelines on how to best use this model</t>
   </si>
@@ -1301,6 +1301,13 @@
   </si>
   <si>
     <t>Only use it for the purpose for which you have been given access to it.</t>
+  </si>
+  <si>
+    <t>Noname</t>
+  </si>
+  <si>
+    <t>Dilution
+↓</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1335,7 @@
     <numFmt numFmtId="181" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="182" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -1562,6 +1569,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2001,7 +2015,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3000,13 +3014,28 @@
     <xf numFmtId="0" fontId="29" fillId="19" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{1DD41B52-2285-0741-9ADF-114BAA77D48F}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{06FE0357-CC5B-934D-9155-1DB7A0E2D365}"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{C12C717B-F14B-0143-9278-7CDC8CA47CBA}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3033,7 +3062,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3095,7 +3124,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3163,16 +3192,16 @@
                   <c:v>4.6922049999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4890720650088127</c:v>
+                  <c:v>7.143496060847248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6322267403552644</c:v>
+                  <c:v>8.5058213636664348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9306022716445561</c:v>
+                  <c:v>10.057380321902116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3791370418197282</c:v>
+                  <c:v>11.813482408187369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3240,16 +3269,16 @@
                   <c:v>4.6921000000000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4890720650088127</c:v>
+                  <c:v>7.1434960608472462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6322267403552626</c:v>
+                  <c:v>8.505821363666433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9306022716445543</c:v>
+                  <c:v>10.057380321902116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3791370418197282</c:v>
+                  <c:v>11.813482408187367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,16 +3363,16 @@
                   <c:v>1.6485762144053604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6852199924359514</c:v>
+                  <c:v>1.9169618656924248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6577359586102363</c:v>
+                  <c:v>1.8722888572833676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6577359586102363</c:v>
+                  <c:v>1.8612460744762518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.657735958610236</c:v>
+                  <c:v>1.8501938386048282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,16 +3443,16 @@
                   <c:v>2.24998324958124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2864293160888498</c:v>
+                  <c:v>2.5499533616105028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3366733721867381</c:v>
+                  <c:v>2.5966268257741252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4126707184205154</c:v>
+                  <c:v>2.6759008903813175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5027337677709278</c:v>
+                  <c:v>2.7766197821740102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,7 +3518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1872540087"/>
@@ -3548,7 +3577,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="770097575"/>
@@ -3590,7 +3619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1470838272"/>
@@ -3650,7 +3679,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3680,7 +3709,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-KR"/>
+      <a:endParaRPr lang="en-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3694,7 +3723,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3756,7 +3785,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3836,16 +3865,16 @@
                   <c:v>2.933036817395587E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8956627568471224E-2</c:v>
+                  <c:v>2.8981713730391372E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6256627568471249E-2</c:v>
+                  <c:v>3.8147674244140235E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6256627568471339E-2</c:v>
+                  <c:v>3.8136737697418509E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6256627568471235E-2</c:v>
+                  <c:v>3.80845109587509E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3913,16 +3942,16 @@
                   <c:v>3.9818852733981683E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0568900897432432E-2</c:v>
+                  <c:v>3.8798131532789326E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0149743437193715E-2</c:v>
+                  <c:v>5.0652947574798296E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9202373070732761E-2</c:v>
+                  <c:v>4.9840905421930787E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8124990471912307E-2</c:v>
+                  <c:v>4.8714063808673852E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3992,16 +4021,16 @@
                   <c:v>0.13803689899583027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1354862993672972</c:v>
+                  <c:v>9.3176654166247166E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16085987829150214</c:v>
+                  <c:v>0.12060626131641851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15150293874469145</c:v>
+                  <c:v>0.11714013721064732</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14173271700616608</c:v>
+                  <c:v>0.11222057778135897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,7 +4095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="967288551"/>
@@ -4125,7 +4154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1752542648"/>
@@ -4167,7 +4196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4197,7 +4226,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-KR"/>
+      <a:endParaRPr lang="en-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4211,7 +4240,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4273,7 +4302,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4344,10 +4373,10 @@
                   <c:v>0.40540992881052285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27284577695869056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4067001675041868</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43674941294867492</c:v>
@@ -4415,19 +4444,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2994317586861826</c:v>
+                  <c:v>0.41639326803434173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42741269305134411</c:v>
+                  <c:v>0.71348263347113683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29632725291408707</c:v>
+                  <c:v>0.35615708178459554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40399660061636467</c:v>
+                  <c:v>0.45955191650171251</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4132446606278477</c:v>
+                  <c:v>0.45031216714775579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,19 +4521,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.31176042136694204</c:v>
+                  <c:v>0.41998605231536806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45298240764668418</c:v>
+                  <c:v>0.72409647042440595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33637147628085584</c:v>
+                  <c:v>0.40007929692938654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45859073583479248</c:v>
+                  <c:v>0.51794395862455844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40798415775940955</c:v>
+                  <c:v>0.44083148317213461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4571,19 +4600,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3247618394627132</c:v>
+                  <c:v>0.4254810230613299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48095895410339412</c:v>
+                  <c:v>0.74058654307384197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33637147628085623</c:v>
+                  <c:v>0.39663563094838511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45859073583479321</c:v>
+                  <c:v>0.51488911875885168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40027699767132452</c:v>
+                  <c:v>0.42947066480134105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,19 +4679,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.33954750525115968</c:v>
+                  <c:v>0.43409207804636502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51411344184608498</c:v>
+                  <c:v>0.76707192319871842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33637147628085573</c:v>
+                  <c:v>0.39320776160032367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45859073583479237</c:v>
+                  <c:v>0.51183166382788337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39151214660653616</c:v>
+                  <c:v>0.41712620916541071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4727,7 +4756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1864752215"/>
@@ -4786,7 +4815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2071799367"/>
@@ -4828,7 +4857,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4858,7 +4887,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-KR"/>
+      <a:endParaRPr lang="en-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4872,7 +4901,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4934,7 +4963,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5033,16 +5062,16 @@
                   <c:v>0.62348205300234816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60649411960606414</c:v>
+                  <c:v>0.49371640240309961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59877359866568158</c:v>
+                  <c:v>0.49412949294858383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58746226734639884</c:v>
+                  <c:v>0.48998715498181733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57459862714366594</c:v>
+                  <c:v>0.4831739711676587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5134,16 +5163,16 @@
                   <c:v>3.466639144566614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3396591075966766</c:v>
+                  <c:v>2.4015758101005744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2075912510491511</c:v>
+                  <c:v>2.38103145208522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0791795047546304</c:v>
+                  <c:v>2.3502810837602439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9450960013984218</c:v>
+                  <c:v>2.3036587179856132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5209,7 +5238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1509201792"/>
@@ -5268,7 +5297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1509199520"/>
@@ -5310,7 +5339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1567561904"/>
@@ -5370,7 +5399,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5407,7 +5436,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-KR"/>
+      <a:endParaRPr lang="en-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7571,7 +7600,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="15" fmlaLink="OPT" max="3" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="15" fmlaLink="OPT" max="3" page="10" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8342,8 +8371,8 @@
   </sheetPr>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" topLeftCell="A51" zoomScale="106" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView showOutlineSymbols="0" topLeftCell="A2" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8879,7 +8908,7 @@
       <c r="E26" s="248"/>
       <c r="F26" s="248"/>
       <c r="G26" s="248">
-        <v>8.41</v>
+        <v>12.41</v>
       </c>
       <c r="H26" s="241"/>
       <c r="I26" s="233"/>
@@ -8899,7 +8928,7 @@
       <c r="F27" s="249"/>
       <c r="G27" s="249">
         <f>G26/G25</f>
-        <v>9.1890054759899371</v>
+        <v>13.559519376579683</v>
       </c>
       <c r="H27" s="241"/>
       <c r="I27" s="233"/>
@@ -8919,7 +8948,7 @@
       <c r="F28" s="232"/>
       <c r="G28" s="232">
         <f>G24*G26/inM</f>
-        <v>7.63514465</v>
+        <v>11.26660465</v>
       </c>
       <c r="H28" s="241"/>
       <c r="I28" s="233"/>
@@ -9864,7 +9893,7 @@
       <c r="H76" s="220"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H6suqtigIDw6V3xeuEtENbMEwDeRWbeH/viRpbfYfgL/tuiDMsNUqMrg61KgNdKWxaNVb1wyIyb2U2Q7GE7KlA==" saltValue="exHIyf7QShSa8m3gkkvBBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.49" top="0.48" bottom="0.64" header="0.27" footer="0.39"/>
   <pageSetup fitToHeight="2" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -9877,7 +9906,7 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
@@ -10888,7 +10917,7 @@
       </c>
       <c r="I11" s="293">
         <f>'Noname co'!G26</f>
-        <v>8.41</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -10917,7 +10946,7 @@
       </c>
       <c r="I12" s="294">
         <f>'Noname co'!G27</f>
-        <v>9.1890054759899371</v>
+        <v>13.559519376579683</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -11061,7 +11090,7 @@
       </c>
       <c r="I20" s="292">
         <f>I19*I11</f>
-        <v>7.63514465</v>
+        <v>11.26660465</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -11213,8 +11242,8 @@
   </sheetPr>
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -11901,27 +11930,27 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="359" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="26">
+      <c r="C36" s="359"/>
+      <c r="D36" s="360">
         <f>('Noname co'!C58+'Noname co'!C60+'Noname co'!C64)/'Noname co'!C51</f>
         <v>0.63291759708076911</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="360">
         <f>('Noname co'!D58+'Noname co'!D60+'Noname co'!D64)/'Noname co'!D51</f>
         <v>0.63464000787944452</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="360">
         <f>('Noname co'!E58+'Noname co'!E60+'Noname co'!E64)/'Noname co'!E51</f>
         <v>0.62591282260625025</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="360">
         <f>('Noname co'!F58+'Noname co'!F60+'Noname co'!F64)/'Noname co'!F51</f>
         <v>0.61830636354611357</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="360">
         <f>('Noname co'!G58+'Noname co'!G60+'Noname co'!G64)/'Noname co'!G51</f>
         <v>0.62348205300234816</v>
       </c>
@@ -11931,27 +11960,27 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="359" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="29">
+      <c r="C37" s="359"/>
+      <c r="D37" s="361">
         <f>'Noname co'!C51/'Noname co'!C69</f>
         <v>3.4952361916183623</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="361">
         <f>'Noname co'!D51/'Noname co'!D69</f>
         <v>3.5555010812183183</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="361">
         <f>'Noname co'!E51/'Noname co'!E69</f>
         <v>3.4528554536698435</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="361">
         <f>'Noname co'!F51/'Noname co'!F69</f>
         <v>3.3974622747785728</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="361">
         <f>'Noname co'!G51/'Noname co'!G69</f>
         <v>3.4666217009820741</v>
       </c>
@@ -13274,7 +13303,7 @@
       </c>
       <c r="C126" s="58">
         <f>Market!I20</f>
-        <v>7.63514465</v>
+        <v>11.26660465</v>
       </c>
     </row>
     <row r="127" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.15">
@@ -13334,7 +13363,7 @@
       </c>
       <c r="C132" s="6">
         <f t="shared" si="2"/>
-        <v>1.7039886729585403</v>
+        <v>1.1547578355827015</v>
       </c>
     </row>
     <row r="134" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -13361,7 +13390,7 @@
         <v>Unlevered Beta Competitor B</v>
       </c>
       <c r="C137" s="6">
-        <f t="shared" ref="C137:C138" si="3">C122/(1+(1-C$134)*C131)</f>
+        <f>C122/(1+(1-C$134)*C131)</f>
         <v>0.46409275285779505</v>
       </c>
     </row>
@@ -13371,8 +13400,8 @@
         <v>Unlevered Beta Noname Co</v>
       </c>
       <c r="C138" s="58">
-        <f t="shared" si="3"/>
-        <v>0.37880277916404897</v>
+        <f>C123/(1+(1-C$134)*C132)</f>
+        <v>0.46121125949478453</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="18" thickTop="1" x14ac:dyDescent="0.15">
@@ -13381,7 +13410,7 @@
       </c>
       <c r="C139" s="6">
         <f>AVERAGE(C136:C138)</f>
-        <v>0.41834784268527153</v>
+        <v>0.44581733612884999</v>
       </c>
     </row>
     <row r="143" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -13430,8 +13459,8 @@
   </sheetPr>
   <dimension ref="B2:M139"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView topLeftCell="A66" zoomScale="143" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -14380,7 +14409,7 @@
       </c>
       <c r="C69" s="51">
         <f>'Noname co'!G26</f>
-        <v>8.41</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14398,7 +14427,7 @@
       </c>
       <c r="C71" s="60">
         <f>C69*C70/inM</f>
-        <v>7.63514465</v>
+        <v>11.26660465</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -14504,7 +14533,7 @@
       </c>
       <c r="C88" s="51">
         <f>C69</f>
-        <v>8.41</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="90" spans="2:10" ht="17" x14ac:dyDescent="0.15">
@@ -15030,7 +15059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:10" ht="68" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B124" s="69" t="s">
         <v>116</v>
       </c>
@@ -15038,9 +15067,8 @@
         <f>B83</f>
         <v>Target co</v>
       </c>
-      <c r="D124" s="70" t="str">
-        <f>B2</f>
-        <v>Noname co, by elie diwambuena</v>
+      <c r="D124" s="70" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="17" x14ac:dyDescent="0.15">
@@ -15075,11 +15103,11 @@
       </c>
       <c r="C127" s="105">
         <f>'Pre-analysis'!C139</f>
-        <v>0.41834784268527153</v>
+        <v>0.44581733612884999</v>
       </c>
       <c r="D127" s="105">
         <f>'Pre-analysis'!C138</f>
-        <v>0.37880277916404897</v>
+        <v>0.46121125949478453</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="17" x14ac:dyDescent="0.15">
@@ -15105,7 +15133,7 @@
       </c>
       <c r="D129" s="51">
         <f>Market!I20</f>
-        <v>7.63514465</v>
+        <v>11.26660465</v>
       </c>
     </row>
     <row r="130" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -15129,7 +15157,7 @@
       </c>
       <c r="D131" s="57">
         <f>'Pre-analysis'!C132</f>
-        <v>1.7039886729585403</v>
+        <v>1.1547578355827015</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -15138,14 +15166,14 @@
       </c>
       <c r="C132" s="106">
         <f>C127*(1+(1-$D103)*C131)</f>
-        <v>0.43921642757122181</v>
+        <v>0.46805619091274409</v>
       </c>
       <c r="D132" s="60">
         <f>'Pre-analysis'!C123</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="69" t="s">
         <v>123</v>
       </c>
@@ -15155,7 +15183,7 @@
       </c>
       <c r="D135" s="70" t="str">
         <f>D124</f>
-        <v>Noname co, by elie diwambuena</v>
+        <v>Noname</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -15171,7 +15199,7 @@
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="138" spans="2:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="69" t="s">
         <v>125</v>
       </c>
@@ -15181,7 +15209,7 @@
       </c>
       <c r="D138" s="70" t="str">
         <f>D135</f>
-        <v>Noname co, by elie diwambuena</v>
+        <v>Noname</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -15210,8 +15238,8 @@
   </sheetPr>
   <dimension ref="B1:K121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A81" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -17267,7 +17295,7 @@
       <c r="F115" s="110"/>
       <c r="G115" s="110"/>
     </row>
-    <row r="116" spans="2:7" ht="69" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B116" s="108" t="s">
         <v>166</v>
       </c>
@@ -17275,9 +17303,8 @@
         <f>Input!C124</f>
         <v>Target co</v>
       </c>
-      <c r="D116" s="108" t="str">
-        <f>Input!D124</f>
-        <v>Noname co, by elie diwambuena</v>
+      <c r="D116" s="108" t="s">
+        <v>379</v>
       </c>
       <c r="E116" s="110"/>
       <c r="F116" s="110"/>
@@ -17289,7 +17316,7 @@
       </c>
       <c r="C117" s="50">
         <f>Input!C125+Input!C132*Input!C126</f>
-        <v>7.3245149929985529E-2</v>
+        <v>7.5263933363892088E-2</v>
       </c>
       <c r="D117" s="64">
         <f>Input!D125+Input!D126*Input!D132</f>
@@ -17332,7 +17359,7 @@
       </c>
       <c r="D120" s="134">
         <f>Input!D128/(Input!D128+Input!D129)</f>
-        <v>0.63017596560200806</v>
+        <v>0.5359107257964445</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="18" thickTop="1" x14ac:dyDescent="0.15">
@@ -17341,11 +17368,11 @@
       </c>
       <c r="C121" s="50">
         <f>C117*(1-C120)+C118*C120*(1-C119)</f>
-        <v>7.1945421151312514E-2</v>
+        <v>7.3835078031724274E-2</v>
       </c>
       <c r="D121" s="50">
         <f>D117*(1-D120)+D118*D120*(1-D119)</f>
-        <v>7.567439903697612E-2</v>
+        <v>7.9612329429853537E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17367,8 +17394,8 @@
   </sheetPr>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -17461,7 +17488,7 @@
       </c>
       <c r="C11" s="6">
         <f>Input!C69</f>
-        <v>8.41</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="17" x14ac:dyDescent="0.15">
@@ -17497,7 +17524,7 @@
       </c>
       <c r="C15" s="140">
         <f>C13*C11/inM</f>
-        <v>7.63514465</v>
+        <v>11.26660465</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="17" x14ac:dyDescent="0.15">
@@ -17513,7 +17540,7 @@
       </c>
       <c r="E16" s="143">
         <f>(C10+C13)*C11/inM</f>
-        <v>10.99914465</v>
+        <v>16.23060465</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -17538,26 +17565,33 @@
       <c r="D19" s="136" t="s">
         <v>171</v>
       </c>
+      <c r="F19" s="142" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:C21" si="0">C6</f>
+        <f>C6</f>
         <v>226966.25</v>
       </c>
       <c r="D20" s="62">
         <f>C20/SUM($C$20:$C$23)</f>
         <v>0.1735395090471876</v>
       </c>
+      <c r="F20" s="362">
+        <f>D20/D6-1</f>
+        <v>-0.30584196381124962</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C20:C21" si="0">C7</f>
         <v>63550.55</v>
       </c>
       <c r="D21" s="62">
@@ -18043,9 +18077,9 @@
         <v>166</v>
       </c>
       <c r="C53" s="153"/>
-      <c r="D53" s="153">
+      <c r="D53" s="358">
         <f>Calcul!D121</f>
-        <v>7.567439903697612E-2</v>
+        <v>7.9612329429853537E-2</v>
       </c>
       <c r="E53" s="350"/>
       <c r="F53" s="351"/>
@@ -18113,19 +18147,19 @@
       <c r="C56" s="153"/>
       <c r="D56" s="153">
         <f>1/(1+$D53)^D55</f>
-        <v>0.9641832525702988</v>
+        <v>0.96242319709256507</v>
       </c>
       <c r="E56" s="153">
         <f t="shared" ref="E56:G56" si="10">1/(1+$D53)^E55</f>
-        <v>0.89635232876557025</v>
+        <v>0.89145258057660726</v>
       </c>
       <c r="F56" s="153">
         <f t="shared" si="10"/>
-        <v>0.8332933549111623</v>
+        <v>0.82571545014439196</v>
       </c>
       <c r="G56" s="153">
         <f t="shared" si="10"/>
-        <v>0.77467062120023367</v>
+        <v>0.76482588021244124</v>
       </c>
       <c r="H56" s="51"/>
       <c r="I56" s="2"/>
@@ -18139,19 +18173,19 @@
       <c r="C57" s="153"/>
       <c r="D57" s="153">
         <f>D49*D56</f>
-        <v>-2.4809570975753248</v>
+        <v>-2.4764282674821141</v>
       </c>
       <c r="E57" s="153">
         <f t="shared" ref="E57:G57" si="11">E49*E56</f>
-        <v>1.1346754805204808</v>
+        <v>1.1284729818463295</v>
       </c>
       <c r="F57" s="153">
         <f t="shared" si="11"/>
-        <v>1.1043529880006282</v>
+        <v>1.0943100880751162</v>
       </c>
       <c r="G57" s="153">
         <f t="shared" si="11"/>
-        <v>1.0749821636286951</v>
+        <v>1.0613209756633832</v>
       </c>
       <c r="H57" s="51"/>
       <c r="I57" s="2"/>
@@ -18164,7 +18198,7 @@
       </c>
       <c r="C58" s="153">
         <f>SUM(D57:G57)</f>
-        <v>0.83305353457447939</v>
+        <v>0.80767577810271485</v>
       </c>
       <c r="D58" s="350"/>
       <c r="E58" s="351"/>
@@ -19913,7 +19947,7 @@
       </c>
       <c r="C154" s="183">
         <f>Calcul!C121</f>
-        <v>7.1945421151312514E-2</v>
+        <v>7.3835078031724274E-2</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="348"/>
@@ -19961,32 +19995,35 @@
       <c r="C157" s="153"/>
       <c r="D157" s="153">
         <f>1/(1+$C154)^D156</f>
-        <v>0.96585884935734723</v>
+        <v>0.96500865108073741</v>
       </c>
       <c r="E157" s="153">
         <f>1/(1+$C154)^E156</f>
-        <v>0.90103360702821611</v>
+        <v>0.89865629352464516</v>
       </c>
       <c r="F157" s="153">
         <f>1/(1+$C154)^F156</f>
-        <v>0.84055921994654337</v>
+        <v>0.83686621149667462</v>
       </c>
       <c r="G157" s="153">
         <f>1/(1+$C154)^G156</f>
-        <v>0.78414367313939259</v>
+        <v>0.77932471067214582</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C158" s="350"/>
+      <c r="C158" s="350">
+        <f>G158*G157</f>
+        <v>5.9379429334258091</v>
+      </c>
       <c r="D158" s="351"/>
       <c r="E158" s="351"/>
       <c r="F158" s="352"/>
       <c r="G158" s="153">
         <f>G153*(1+C155)/(C154-C155)</f>
-        <v>7.9469762786676528</v>
+        <v>7.6193438397513393</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
@@ -19996,19 +20033,19 @@
       <c r="C159" s="153"/>
       <c r="D159" s="153">
         <f>D153*D157</f>
-        <v>-9.8238358072985962E-2</v>
+        <v>-9.8151883654093178E-2</v>
       </c>
       <c r="E159" s="153">
         <f t="shared" ref="E159:F159" si="40">E153*E157</f>
-        <v>0.20382438070693157</v>
+        <v>0.20328660448101504</v>
       </c>
       <c r="F159" s="153">
         <f t="shared" si="40"/>
-        <v>0.20327036360026449</v>
+        <v>0.20237729247265088</v>
       </c>
       <c r="G159" s="153">
         <f>(G153+G158)*G157</f>
-        <v>6.4979612662748698</v>
+        <v>6.2026959272988611</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
@@ -20016,8 +20053,8 @@
         <v>265</v>
       </c>
       <c r="C160" s="153">
-        <f>SUM(D159:G159)</f>
-        <v>6.8068176525090802</v>
+        <f>SUM(D159:G159,C158)</f>
+        <v>12.448150874024243</v>
       </c>
       <c r="D160" s="348"/>
       <c r="E160" s="348"/>
@@ -20043,7 +20080,7 @@
       </c>
       <c r="C162" s="185">
         <f>C160-C161</f>
-        <v>6.4911176525090806</v>
+        <v>12.132450874024244</v>
       </c>
       <c r="D162" s="349" t="str">
         <f>"Greater than "  &amp;Input!C85</f>
@@ -20077,7 +20114,7 @@
       </c>
       <c r="C167" s="136">
         <f>Input!C88</f>
-        <v>8.41</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="168" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -20086,7 +20123,7 @@
       </c>
       <c r="C168" s="56">
         <f>C166*C167/inM</f>
-        <v>3.4052762800000003</v>
+        <v>5.02490828</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -20104,7 +20141,7 @@
       </c>
       <c r="C170" s="56">
         <f>C168-C169</f>
-        <v>1.8762800000007296E-3</v>
+        <v>1.6215082800000005</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -20122,7 +20159,7 @@
       </c>
       <c r="C172" s="56">
         <f>C165*C167/inM</f>
-        <v>7.63514465</v>
+        <v>11.26660465</v>
       </c>
     </row>
     <row r="173" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -20131,7 +20168,7 @@
       </c>
       <c r="C173" s="141">
         <f>SUM(C165,C166)*C167/inM</f>
-        <v>11.04042093</v>
+        <v>16.29151293</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="34" x14ac:dyDescent="0.15">
@@ -20290,19 +20327,19 @@
       <c r="C6" s="157"/>
       <c r="D6" s="158" cm="1">
         <f t="array" ref="D6">_xlfn.IFS(OPT=0,Calcul!D5, OPT=1, Calcul!D5+Projects!D29, OPT=2, Calcul!D5+Projects!D68,OPT=3,Calcul!D5)</f>
-        <v>32.578349999999993</v>
+        <v>39.156067999999991</v>
       </c>
       <c r="E6" s="158" cm="1">
         <f t="array" ref="E6">_xlfn.IFS(OPT=0,Calcul!E5, OPT=1, Calcul!E5+Projects!E29, OPT=2, Calcul!E5+Projects!E68,OPT=3,Calcul!E5)</f>
-        <v>36.813535499999986</v>
+        <v>43.785916579999991</v>
       </c>
       <c r="F6" s="158" cm="1">
         <f t="array" ref="F6">_xlfn.IFS(OPT=0,Calcul!F5, OPT=1, Calcul!F5+Projects!F29, OPT=2, Calcul!F5+Projects!F68,OPT=3,Calcul!F5)</f>
-        <v>40.86302440499999</v>
+        <v>48.184024538999992</v>
       </c>
       <c r="G6" s="158" cm="1">
         <f t="array" ref="G6">_xlfn.IFS(OPT=0,Calcul!G5, OPT=1, Calcul!G5+Projects!G29, OPT=2, Calcul!G5+Projects!G68,OPT=3,Calcul!G5)</f>
-        <v>44.540696601449994</v>
+        <v>52.066684739201996</v>
       </c>
       <c r="H6" s="158"/>
       <c r="I6" s="6"/>
@@ -20320,19 +20357,19 @@
       <c r="C7" s="157"/>
       <c r="D7" s="189" cm="1">
         <f t="array" ref="D7">_xlfn.IFS(OPT=0, Calcul!D9, OPT=1,Calcul!D9+Projects!D30, OPT=2,Calcul!D9+Projects!D69, OPT=3, Calcul!D9)</f>
-        <v>-20.035685249999997</v>
+        <v>-24.080981819999998</v>
       </c>
       <c r="E7" s="189" cm="1">
         <f t="array" ref="E7">_xlfn.IFS(OPT=0, Calcul!E9, OPT=1,Calcul!E9+Projects!E30, OPT=2,Calcul!E9+Projects!E69, OPT=3, Calcul!E9)</f>
-        <v>-21.535918267499991</v>
+        <v>-25.614761199299991</v>
       </c>
       <c r="F7" s="189" cm="1">
         <f t="array" ref="F7">_xlfn.IFS(OPT=0, Calcul!F9, OPT=1,Calcul!F9+Projects!F30, OPT=2,Calcul!F9+Projects!F69, OPT=3, Calcul!F9)</f>
-        <v>-23.904869276924991</v>
+        <v>-28.18765435531499</v>
       </c>
       <c r="G7" s="189" cm="1">
         <f t="array" ref="G7">_xlfn.IFS(OPT=0, Calcul!G9, OPT=1,Calcul!G9+Projects!G30, OPT=2,Calcul!G9+Projects!G69, OPT=3, Calcul!G9)</f>
-        <v>-26.056307511848246</v>
+        <v>-30.459010572433165</v>
       </c>
       <c r="H7" s="161"/>
       <c r="I7" s="7"/>
@@ -20350,19 +20387,19 @@
       <c r="C8" s="157"/>
       <c r="D8" s="161">
         <f>SUM(D6:D7)</f>
-        <v>12.542664749999997</v>
+        <v>15.075086179999992</v>
       </c>
       <c r="E8" s="161">
         <f t="shared" ref="E8:G8" si="0">SUM(E6:E7)</f>
-        <v>15.277617232499995</v>
+        <v>18.1711553807</v>
       </c>
       <c r="F8" s="161">
         <f t="shared" si="0"/>
-        <v>16.958155128074999</v>
+        <v>19.996370183685002</v>
       </c>
       <c r="G8" s="161">
         <f t="shared" si="0"/>
-        <v>18.484389089601748</v>
+        <v>21.607674166768831</v>
       </c>
       <c r="H8" s="161"/>
       <c r="I8" s="6"/>
@@ -20412,19 +20449,19 @@
       <c r="C11" s="157"/>
       <c r="D11" s="110" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(OPT=0, Calcul!D11, OPT=1, Calcul!D11, OPT=2, Calcul!D11+Projects!D73, OPT=3, Calcul!D11)</f>
-        <v>-0.32578349999999995</v>
+        <v>-0.39156067999999994</v>
       </c>
       <c r="E11" s="110" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(OPT=0, Calcul!E11, OPT=1, Calcul!E11, OPT=2, Calcul!E11+Projects!E73, OPT=3, Calcul!E11)</f>
-        <v>-0.5890165679999998</v>
+        <v>-0.70057466527999979</v>
       </c>
       <c r="F11" s="110" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(OPT=0, Calcul!F11, OPT=1, Calcul!F11, OPT=2, Calcul!F11+Projects!F73, OPT=3, Calcul!F11)</f>
-        <v>-0.65380839047999983</v>
+        <v>-0.77094439262399983</v>
       </c>
       <c r="G11" s="110" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(OPT=0, Calcul!G11, OPT=1, Calcul!G11, OPT=2, Calcul!G11+Projects!G73, OPT=3, Calcul!G11)</f>
-        <v>-0.71265114562319998</v>
+        <v>-0.833066955827232</v>
       </c>
       <c r="H11" s="110"/>
     </row>
@@ -20436,19 +20473,19 @@
       <c r="C12" s="157"/>
       <c r="D12" s="189" cm="1">
         <f t="array" ref="D12">_xlfn.IFS(OPT=0,Calcul!D10,OPT=1,Calcul!D10+SUM(Projects!D34:D35),OPT=2,Calcul!D10+Projects!D74,OPT=3,Calcul!D10)</f>
-        <v>-9.806083349999998</v>
+        <v>-11.785976467999998</v>
       </c>
       <c r="E12" s="189" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(OPT=0,Calcul!E10,OPT=1,Calcul!E10+SUM(Projects!E34:E35),OPT=2,Calcul!E10+Projects!E74,OPT=3,Calcul!E10)</f>
-        <v>-11.596263682499997</v>
+        <v>-13.792563722699997</v>
       </c>
       <c r="F12" s="189" cm="1">
         <f t="array" ref="F12">_xlfn.IFS(OPT=0,Calcul!F10,OPT=1,Calcul!F10+SUM(Projects!F34:F35),OPT=2,Calcul!F10+Projects!F74,OPT=3,Calcul!F10)</f>
-        <v>-12.871852687574997</v>
+        <v>-15.177967729784998</v>
       </c>
       <c r="G12" s="189" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(OPT=0,Calcul!G10,OPT=1,Calcul!G10+SUM(Projects!G34:G35),OPT=2,Calcul!G10+Projects!G74,OPT=3,Calcul!G10)</f>
-        <v>-14.030319429456748</v>
+        <v>-16.401005692848628</v>
       </c>
       <c r="H12" s="161"/>
     </row>
@@ -20460,19 +20497,19 @@
       <c r="C13" s="157"/>
       <c r="D13" s="161">
         <f>SUM(D8:D12)</f>
-        <v>2.4107978999999986</v>
+        <v>2.8975490319999953</v>
       </c>
       <c r="E13" s="161">
         <f t="shared" ref="E13:G13" si="1">SUM(E8:E12)</f>
-        <v>3.0923369819999991</v>
+        <v>3.6780169927200017</v>
       </c>
       <c r="F13" s="161">
         <f t="shared" si="1"/>
-        <v>3.4324940500200043</v>
+        <v>4.0474580612760054</v>
       </c>
       <c r="G13" s="161">
         <f t="shared" si="1"/>
-        <v>3.7414185145217989</v>
+        <v>4.3736015180929719</v>
       </c>
       <c r="H13" s="161"/>
     </row>
@@ -20493,19 +20530,19 @@
       <c r="C15" s="157"/>
       <c r="D15" s="189" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(OPT=0, Calcul!D36+Calcul!D41, OPT=1,Calcul!D36+Calcul!D41, OPT=2,Calcul!D36+Calcul!D41+Projects!D77+Input!D118,OPT=3, Calcul!D36+Calcul!D41)</f>
-        <v>-1.1185250948694447</v>
+        <v>-1.3430148490085734</v>
       </c>
       <c r="E15" s="189" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(OPT=0, Calcul!E36+Calcul!E41, OPT=1,Calcul!E36+Calcul!E41, OPT=2,Calcul!E36+Calcul!E41+Projects!E77+Input!E118,OPT=3, Calcul!E36+Calcul!E41)</f>
-        <v>-1.2639333572024722</v>
+        <v>-1.3898924965899488</v>
       </c>
       <c r="F15" s="189" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(OPT=0, Calcul!F36+Calcul!F41, OPT=1,Calcul!F36+Calcul!F41, OPT=2,Calcul!F36+Calcul!F41+Projects!F77+Input!F118,OPT=3, Calcul!F36+Calcul!F41)</f>
-        <v>-1.4029660264947446</v>
+        <v>-1.530223122851595</v>
       </c>
       <c r="G15" s="189" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(OPT=0, Calcul!G36+Calcul!G41, OPT=1,Calcul!G36+Calcul!G41, OPT=2,Calcul!G36+Calcul!G41+Projects!G77+Input!G118,OPT=3, Calcul!G36+Calcul!G41)</f>
-        <v>-1.5292329688792716</v>
+        <v>-1.6572532639341138</v>
       </c>
       <c r="H15" s="161"/>
     </row>
@@ -20517,19 +20554,19 @@
       <c r="C16" s="157"/>
       <c r="D16" s="161">
         <f>SUM(D13:D15)</f>
-        <v>1.2922728051305539</v>
+        <v>1.5545341829914219</v>
       </c>
       <c r="E16" s="161">
         <f t="shared" ref="E16:G16" si="2">SUM(E13:E15)</f>
-        <v>1.8284036247975268</v>
+        <v>2.2881244961300529</v>
       </c>
       <c r="F16" s="161">
         <f t="shared" si="2"/>
-        <v>2.02952802352526</v>
+        <v>2.5172349384244104</v>
       </c>
       <c r="G16" s="161">
         <f t="shared" si="2"/>
-        <v>2.2121855456425275</v>
+        <v>2.7163482541588584</v>
       </c>
       <c r="H16" s="161"/>
     </row>
@@ -20550,19 +20587,19 @@
       <c r="C18" s="157"/>
       <c r="D18" s="189">
         <f xml:space="preserve"> -D16*Input!D19</f>
-        <v>-0.34891365738524954</v>
+        <v>-0.41972422940768395</v>
       </c>
       <c r="E18" s="189">
         <f xml:space="preserve"> -E16*Input!E19</f>
-        <v>-0.49366897869533227</v>
+        <v>-0.61779361395511434</v>
       </c>
       <c r="F18" s="189">
         <f xml:space="preserve"> -F16*Input!F19</f>
-        <v>-0.54797256635182023</v>
+        <v>-0.67965343337459083</v>
       </c>
       <c r="G18" s="189">
         <f xml:space="preserve"> -G16*Input!G19</f>
-        <v>-0.59729009732348248</v>
+        <v>-0.73341402862289184</v>
       </c>
       <c r="H18" s="161"/>
     </row>
@@ -20574,19 +20611,19 @@
       <c r="C19" s="157"/>
       <c r="D19" s="161">
         <f>SUM(D16:D18)</f>
-        <v>0.94335914774530427</v>
+        <v>1.1348099535837379</v>
       </c>
       <c r="E19" s="161">
         <f t="shared" ref="E19:G19" si="3">SUM(E16:E18)</f>
-        <v>1.3347346461021945</v>
+        <v>1.6703308821749385</v>
       </c>
       <c r="F19" s="161">
         <f t="shared" si="3"/>
-        <v>1.4815554571734397</v>
+        <v>1.8375815050498194</v>
       </c>
       <c r="G19" s="161">
         <f t="shared" si="3"/>
-        <v>1.614895448319045</v>
+        <v>1.9829342255359665</v>
       </c>
       <c r="H19" s="161"/>
     </row>
@@ -20605,19 +20642,19 @@
       <c r="C21" s="157"/>
       <c r="D21" s="161">
         <f>D19*Input!D38</f>
-        <v>0.94335914774530427</v>
+        <v>1.1348099535837379</v>
       </c>
       <c r="E21" s="161">
         <f>E19*Input!E38</f>
-        <v>1.3347346461021945</v>
+        <v>1.6703308821749385</v>
       </c>
       <c r="F21" s="161">
         <f>F19*Input!F38</f>
-        <v>1.4815554571734397</v>
+        <v>1.8375815050498194</v>
       </c>
       <c r="G21" s="161">
         <f>G19*Input!G38</f>
-        <v>1.614895448319045</v>
+        <v>1.9829342255359665</v>
       </c>
       <c r="H21" s="161"/>
     </row>
@@ -20655,7 +20692,7 @@
   <dimension ref="B1:L43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20737,19 +20774,19 @@
       </c>
       <c r="D6" s="117">
         <f>PL!D13</f>
-        <v>2.4107978999999986</v>
+        <v>2.8975490319999953</v>
       </c>
       <c r="E6" s="117">
         <f>PL!E13</f>
-        <v>3.0923369819999991</v>
+        <v>3.6780169927200017</v>
       </c>
       <c r="F6" s="117">
         <f>PL!F13</f>
-        <v>3.4324940500200043</v>
+        <v>4.0474580612760054</v>
       </c>
       <c r="G6" s="117">
         <f>PL!G13</f>
-        <v>3.7414185145217989</v>
+        <v>4.3736015180929719</v>
       </c>
       <c r="H6" s="200"/>
       <c r="I6" s="200"/>
@@ -20763,19 +20800,19 @@
       </c>
       <c r="D7" s="117">
         <f>-D6*Input!D19</f>
-        <v>-0.65091543299999965</v>
+        <v>-0.78233823863999874</v>
       </c>
       <c r="E7" s="117">
         <f>-E6*Input!E19</f>
-        <v>-0.83493098513999975</v>
+        <v>-0.99306458803440056</v>
       </c>
       <c r="F7" s="117">
         <f>-F6*Input!F19</f>
-        <v>-0.92677339350540122</v>
+        <v>-1.0928136765445216</v>
       </c>
       <c r="G7" s="117">
         <f>-G6*Input!G19</f>
-        <v>-1.0101829989208857</v>
+        <v>-1.1808724098851024</v>
       </c>
       <c r="H7" s="200"/>
       <c r="I7" s="200"/>
@@ -20789,19 +20826,19 @@
       </c>
       <c r="D8" s="117">
         <f t="shared" ref="D8" si="0">SUM(D6:D7)</f>
-        <v>1.7598824669999988</v>
+        <v>2.1152107933599966</v>
       </c>
       <c r="E8" s="117">
         <f t="shared" ref="E8:G8" si="1">SUM(E6:E7)</f>
-        <v>2.2574059968599993</v>
+        <v>2.684952404685601</v>
       </c>
       <c r="F8" s="117">
         <f t="shared" si="1"/>
-        <v>2.5057206565146029</v>
+        <v>2.9546443847314841</v>
       </c>
       <c r="G8" s="117">
         <f t="shared" si="1"/>
-        <v>2.7312355156009129</v>
+        <v>3.1927291082078693</v>
       </c>
       <c r="H8" s="200"/>
       <c r="I8" s="200"/>
@@ -20841,19 +20878,19 @@
       </c>
       <c r="D10" s="117" cm="1">
         <f t="array" ref="D10">_xlfn.IFS(OPT=0,Calcul!D24, OPT=1,Calcul!D24+Calcul!D65, OPT=2, Calcul!D24+Calcul!D98,OPT=3,Calcul!D24)</f>
-        <v>-1.4445841686643792</v>
+        <v>-1.7117040725342423</v>
       </c>
       <c r="E10" s="117" cm="1">
         <f t="array" ref="E10">_xlfn.IFS(OPT=0,Calcul!E24, OPT=1,Calcul!E24+Calcul!E65, OPT=2, Calcul!E24+Calcul!E98,OPT=3,Calcul!E24)</f>
-        <v>-1.1219950269092465</v>
+        <v>-1.2087195355674658</v>
       </c>
       <c r="F10" s="117" cm="1">
         <f t="array" ref="F10">_xlfn.IFS(OPT=0,Calcul!F24, OPT=1,Calcul!F24+Calcul!F65, OPT=2, Calcul!F24+Calcul!F98,OPT=3,Calcul!F24)</f>
-        <v>-1.2296162115130986</v>
+        <v>-1.3354734321395032</v>
       </c>
       <c r="G10" s="117" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(OPT=0,Calcul!G24, OPT=1,Calcul!G24+Calcul!G65, OPT=2, Calcul!G24+Calcul!G98,OPT=3,Calcul!G24)</f>
-        <v>-1.1167150866378073</v>
+        <v>-1.1789591323661326</v>
       </c>
       <c r="H10" s="200"/>
       <c r="I10" s="200"/>
@@ -20867,19 +20904,19 @@
       </c>
       <c r="D11" s="117" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(OPT=0,Calcul!D16, OPT=1,Calcul!D16,OPT=2,Calcul!D16+Calcul!D89,OPT=3,Calcul!D16)</f>
-        <v>-5.7440173044973952E-2</v>
+        <v>-4.4322789044973956E-2</v>
       </c>
       <c r="E11" s="117" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(OPT=0,Calcul!E16, OPT=1,Calcul!E16,OPT=2,Calcul!E16+Calcul!E89,OPT=3,Calcul!E16)</f>
-        <v>-5.155672249584653E-2</v>
+        <v>-5.6292679455846539E-2</v>
       </c>
       <c r="F11" s="117" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(OPT=0,Calcul!F16, OPT=1,Calcul!F16,OPT=2,Calcul!F16+Calcul!F89,OPT=3,Calcul!F16)</f>
-        <v>-4.9296158509490318E-2</v>
+        <v>-5.3479587157490321E-2</v>
       </c>
       <c r="G11" s="117" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(OPT=0,Calcul!G16, OPT=1,Calcul!G16,OPT=2,Calcul!G16+Calcul!G89,OPT=3,Calcul!G16)</f>
-        <v>-4.4769874864527992E-2</v>
+        <v>-4.7229730909552001E-2</v>
       </c>
       <c r="H11" s="200"/>
       <c r="I11" s="200"/>
@@ -20893,19 +20930,19 @@
       </c>
       <c r="D12" s="133" cm="1">
         <f t="array" ref="D12">_xlfn.IFS(OPT=0,Calcul!D17,OPT=1,Calcul!D17, OPT=2,Calcul!D17+Calcul!D90,OPT=3,Calcul!D17)</f>
-        <v>7.0011238366878781E-2</v>
+        <v>7.4551357166878801E-2</v>
       </c>
       <c r="E12" s="133" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(OPT=0,Calcul!E17,OPT=1,Calcul!E17, OPT=2,Calcul!E17+Calcul!E90,OPT=3,Calcul!E17)</f>
-        <v>7.029896098769417E-2</v>
+        <v>7.6850368115694193E-2</v>
       </c>
       <c r="F12" s="133" cm="1">
         <f t="array" ref="F12">_xlfn.IFS(OPT=0,Calcul!F17,OPT=1,Calcul!F17, OPT=2,Calcul!F17+Calcul!F90,OPT=3,Calcul!F17)</f>
-        <v>6.7216621929003129E-2</v>
+        <v>7.3003698225403132E-2</v>
       </c>
       <c r="G12" s="133" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(OPT=0,Calcul!G17,OPT=1,Calcul!G17, OPT=2,Calcul!G17+Calcul!G90,OPT=3,Calcul!G17)</f>
-        <v>6.1044913915521914E-2</v>
+        <v>6.4447714777805115E-2</v>
       </c>
       <c r="H12" s="200"/>
       <c r="I12" s="200"/>
@@ -20919,19 +20956,19 @@
       </c>
       <c r="D13" s="117">
         <f t="shared" ref="D13" si="2">SUM(D8:D12)</f>
-        <v>0.32786936365752445</v>
+        <v>0.43373528894765923</v>
       </c>
       <c r="E13" s="117">
         <f t="shared" ref="E13:G13" si="3">SUM(E8:E12)</f>
-        <v>1.1541532084426005</v>
+        <v>1.496790557777983</v>
       </c>
       <c r="F13" s="117">
         <f t="shared" si="3"/>
-        <v>1.2940249084210169</v>
+        <v>1.6386950636598938</v>
       </c>
       <c r="G13" s="117">
         <f t="shared" si="3"/>
-        <v>1.6307954680140995</v>
+        <v>2.0309879597099898</v>
       </c>
       <c r="H13" s="200"/>
       <c r="I13" s="200"/>
@@ -20956,19 +20993,19 @@
       </c>
       <c r="D15" s="133" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(OPT=0,Calcul!D29, OPT=1,Calcul!D29+Calcul!D71, OPT=2,Calcul!D29+Calcul!D104,OPT=3,Calcul!D29)</f>
-        <v>-0.49563499999999827</v>
+        <v>-0.70321180999999822</v>
       </c>
       <c r="E15" s="133" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(OPT=0,Calcul!E29, OPT=1,Calcul!E29+Calcul!E71, OPT=2,Calcul!E29+Calcul!E104,OPT=3,Calcul!E29)</f>
-        <v>-1.2492070499999972</v>
+        <v>-1.3656326585999976</v>
       </c>
       <c r="F15" s="133" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(OPT=0,Calcul!F29, OPT=1,Calcul!F29+Calcul!F71, OPT=2,Calcul!F29+Calcul!F104,OPT=3,Calcul!F29)</f>
-        <v>-1.1944341255000026</v>
+        <v>-1.2972767464300028</v>
       </c>
       <c r="G15" s="133" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(OPT=0,Calcul!G29, OPT=1,Calcul!G29+Calcul!G71, OPT=2,Calcul!G29+Calcul!G104,OPT=3,Calcul!G29)</f>
-        <v>-1.0847633557950012</v>
+        <v>-1.1452348169018411</v>
       </c>
       <c r="H15" s="200"/>
       <c r="I15" s="200"/>
@@ -20982,19 +21019,19 @@
       </c>
       <c r="D16" s="117">
         <f t="shared" ref="D16" si="4">D15</f>
-        <v>-0.49563499999999827</v>
+        <v>-0.70321180999999822</v>
       </c>
       <c r="E16" s="117">
         <f t="shared" ref="E16:G16" si="5">E15</f>
-        <v>-1.2492070499999972</v>
+        <v>-1.3656326585999976</v>
       </c>
       <c r="F16" s="117">
         <f t="shared" si="5"/>
-        <v>-1.1944341255000026</v>
+        <v>-1.2972767464300028</v>
       </c>
       <c r="G16" s="117">
         <f t="shared" si="5"/>
-        <v>-1.0847633557950012</v>
+        <v>-1.1452348169018411</v>
       </c>
       <c r="H16" s="200"/>
       <c r="I16" s="200"/>
@@ -21072,19 +21109,19 @@
       </c>
       <c r="D20" s="117" cm="1">
         <f t="array" ref="D20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!D35, OPT=2,Calcul!D35+Calcul!D110)</f>
-        <v>0.71758702054794377</v>
+        <v>0.73967673281178847</v>
       </c>
       <c r="E20" s="117" cm="1">
         <f t="array" ref="E20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!E35, OPT=2,Calcul!E35+Calcul!E110)</f>
-        <v>0.70489731267123279</v>
+        <v>0.72516469540706363</v>
       </c>
       <c r="F20" s="117" cm="1">
         <f t="array" ref="F20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!F35, OPT=2,Calcul!F35+Calcul!F110)</f>
-        <v>0.67399027665410927</v>
+        <v>0.69189313140409303</v>
       </c>
       <c r="G20" s="117" cm="1">
         <f t="array" ref="G20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!G35, OPT=2,Calcul!G35+Calcul!G110)</f>
-        <v>0.61210571488859689</v>
+        <v>0.62263259348158739</v>
       </c>
       <c r="H20" s="200"/>
       <c r="I20" s="200"/>
@@ -21098,19 +21135,19 @@
       </c>
       <c r="D21" s="117">
         <f>PL!D15</f>
-        <v>-1.1185250948694447</v>
+        <v>-1.3430148490085734</v>
       </c>
       <c r="E21" s="117">
         <f>PL!E15</f>
-        <v>-1.2639333572024722</v>
+        <v>-1.3898924965899488</v>
       </c>
       <c r="F21" s="117">
         <f>PL!F15</f>
-        <v>-1.4029660264947446</v>
+        <v>-1.530223122851595</v>
       </c>
       <c r="G21" s="117">
         <f>PL!G15</f>
-        <v>-1.5292329688792716</v>
+        <v>-1.6572532639341138</v>
       </c>
       <c r="H21" s="200"/>
       <c r="I21" s="200"/>
@@ -21124,19 +21161,19 @@
       </c>
       <c r="D22" s="117">
         <f>-D21*Input!D19</f>
-        <v>0.30200177561475011</v>
+        <v>0.36261400923231485</v>
       </c>
       <c r="E22" s="117">
         <f>-E21*Input!E19</f>
-        <v>0.34126200644466753</v>
+        <v>0.37527097407928622</v>
       </c>
       <c r="F22" s="117">
         <f>-F21*Input!F19</f>
-        <v>0.37880082715358104</v>
+        <v>0.41316024316993066</v>
       </c>
       <c r="G22" s="117">
         <f>-G21*Input!G19</f>
-        <v>0.41289290159740338</v>
+        <v>0.44745838126221077</v>
       </c>
       <c r="H22" s="200"/>
       <c r="I22" s="200"/>
@@ -21189,19 +21226,19 @@
       </c>
       <c r="D25" s="117">
         <f>SUM(D18:D24)</f>
-        <v>0.27624134401341144</v>
+        <v>0.13445353575569235</v>
       </c>
       <c r="E25" s="117">
         <f t="shared" ref="E25:G25" si="6">SUM(E18:E24)</f>
-        <v>0.91071405546704509</v>
+        <v>0.83903126645001802</v>
       </c>
       <c r="F25" s="117">
         <f t="shared" si="6"/>
-        <v>0.72883330830306559</v>
+        <v>0.65383848271254852</v>
       </c>
       <c r="G25" s="117">
         <f t="shared" si="6"/>
-        <v>0.47570130466047894</v>
+        <v>0.39277336786343459</v>
       </c>
       <c r="H25" s="117"/>
       <c r="I25" s="200"/>
@@ -21227,19 +21264,19 @@
       <c r="C27" s="60"/>
       <c r="D27" s="117">
         <f>SUM(D13,D16,D25)</f>
-        <v>0.10847570767093762</v>
+        <v>-0.13502298529664664</v>
       </c>
       <c r="E27" s="117">
         <f t="shared" ref="E27:G27" si="7">SUM(E13,E16,E25)</f>
-        <v>0.81566021390964838</v>
+        <v>0.97018916562800339</v>
       </c>
       <c r="F27" s="117">
         <f t="shared" si="7"/>
-        <v>0.82842409122407989</v>
+        <v>0.99525679994243954</v>
       </c>
       <c r="G27" s="117">
         <f t="shared" si="7"/>
-        <v>1.0217334168795773</v>
+        <v>1.2785265106715833</v>
       </c>
       <c r="H27" s="200"/>
       <c r="I27" s="200"/>
@@ -21252,19 +21289,19 @@
       </c>
       <c r="D28" s="205" cm="1">
         <f t="array" ref="D28">_xlfn.IFS(OPT=2,SUM(Calcul!C97,BS!C8), OPT&lt;&gt;2,BS!C8)</f>
-        <v>1.4357000000000002</v>
+        <v>1.6712500000000001</v>
       </c>
       <c r="E28" s="205" cm="1">
         <f t="array" ref="E28">_xlfn.IFS(OPT=2,BS!D8, OPT&lt;&gt;2,BS!D8)</f>
-        <v>1.5442807076709339</v>
+        <v>1.5363320147033512</v>
       </c>
       <c r="F28" s="205" cm="1">
         <f t="array" ref="F28">_xlfn.IFS(OPT=2,BS!E8, OPT&lt;&gt;2,BS!E8)</f>
-        <v>2.3599409215805842</v>
+        <v>2.5065211803313474</v>
       </c>
       <c r="G28" s="205" cm="1">
         <f t="array" ref="G28">_xlfn.IFS(OPT=2,BS!F8, OPT&lt;&gt;2,BS!F8)</f>
-        <v>3.1883650128046632</v>
+        <v>3.5017779802737969</v>
       </c>
       <c r="H28" s="200"/>
       <c r="I28" s="200"/>
@@ -21277,19 +21314,19 @@
       </c>
       <c r="D29" s="117">
         <f>SUM(D27:D28)</f>
-        <v>1.5441757076709379</v>
+        <v>1.5362270147033534</v>
       </c>
       <c r="E29" s="117">
         <f>SUM(E27:E28)</f>
-        <v>2.3599409215805824</v>
+        <v>2.5065211803313545</v>
       </c>
       <c r="F29" s="117">
         <f>SUM(F27:F28)</f>
-        <v>3.1883650128046641</v>
+        <v>3.5017779802737872</v>
       </c>
       <c r="G29" s="117">
         <f>SUM(G27:G28)</f>
-        <v>4.2100984296842405</v>
+        <v>4.7803044909453805</v>
       </c>
       <c r="H29" s="200"/>
       <c r="I29" s="114"/>
@@ -21309,15 +21346,15 @@
       <c r="C31" s="117"/>
       <c r="D31" s="117">
         <f>BS!D8-CF!D29</f>
-        <v>1.0499999999602494E-4</v>
+        <v>1.049999999978013E-4</v>
       </c>
       <c r="E31" s="117">
         <f>BS!E8-CF!E29</f>
-        <v>0</v>
+        <v>-7.1054273576010019E-15</v>
       </c>
       <c r="F31" s="117">
         <f>BS!F8-CF!F29</f>
-        <v>0</v>
+        <v>9.7699626167013776E-15</v>
       </c>
       <c r="G31" s="117">
         <f>BS!G8-CF!G29</f>
@@ -21399,8 +21436,8 @@
   </sheetPr>
   <dimension ref="B2:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21474,19 +21511,19 @@
       </c>
       <c r="D8" s="176" cm="1">
         <f t="array" ref="D8">_xlfn.IFS(OPT&lt;&gt;2,D40-SUM(D9:D11)-D18, OPT=2,D40-SUM(D9:D11)-D18)</f>
-        <v>1.5442807076709339</v>
+        <v>1.5363320147033512</v>
       </c>
       <c r="E8" s="176" cm="1">
         <f t="array" ref="E8">_xlfn.IFS(OPT&lt;&gt;2,E40-SUM(E9:E11)-E18, OPT=2,E40-SUM(E9:E11)-E18)</f>
-        <v>2.3599409215805842</v>
+        <v>2.5065211803313474</v>
       </c>
       <c r="F8" s="176" cm="1">
         <f t="array" ref="F8">_xlfn.IFS(OPT&lt;&gt;2,F40-SUM(F9:F11)-F18, OPT=2,F40-SUM(F9:F11)-F18)</f>
-        <v>3.1883650128046632</v>
+        <v>3.5017779802737969</v>
       </c>
       <c r="G8" s="176" cm="1">
         <f t="array" ref="G8">_xlfn.IFS(OPT&lt;&gt;2,G40-SUM(G9:G11)-G18, OPT=2,G40-SUM(G9:G11)-G18)</f>
-        <v>4.2100984296842441</v>
+        <v>4.7803044909453796</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
@@ -21509,19 +21546,19 @@
       </c>
       <c r="D9" s="60" cm="1">
         <f t="array" ref="D9">_xlfn.IFS(OPT=0,Calcul!D21,OPT=1,Calcul!D21+Calcul!D62,OPT=2,Calcul!D21+Projects!D118,OPT=3,Calcul!D21)</f>
-        <v>6.6941815068493131</v>
+        <v>8.0457673972602723</v>
       </c>
       <c r="E9" s="60" cm="1">
         <f t="array" ref="E9">_xlfn.IFS(OPT=0,Calcul!E21,OPT=1,Calcul!E21+Calcul!E62,OPT=2,Calcul!E21+Projects!E118,OPT=3,Calcul!E21)</f>
-        <v>7.5644251027397233</v>
+        <v>8.9971061465753408</v>
       </c>
       <c r="F9" s="60" cm="1">
         <f t="array" ref="F9">_xlfn.IFS(OPT=0,Calcul!F21,OPT=1,Calcul!F21+Calcul!F62,OPT=2,Calcul!F21+Projects!F118,OPT=3,Calcul!F21)</f>
-        <v>8.3965118640410932</v>
+        <v>9.9008269600684908</v>
       </c>
       <c r="G9" s="60" cm="1">
         <f t="array" ref="G9">_xlfn.IFS(OPT=0,Calcul!G21,OPT=1,Calcul!G21+Calcul!G62,OPT=2,Calcul!G21+Projects!G118,OPT=3,Calcul!G21)</f>
-        <v>9.1521979318047926</v>
+        <v>10.698633850520958</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="56"/>
@@ -21544,19 +21581,19 @@
       </c>
       <c r="D10" s="60" cm="1">
         <f t="array" ref="D10">_xlfn.IFS(OPT=0,Calcul!D23,OPT=1,Calcul!D23+Calcul!D63,OPT=2,Calcul!D23+Projects!D119,OPT=3,Calcul!D23)</f>
-        <v>5.0089213124999992</v>
+        <v>6.0202454549999995</v>
       </c>
       <c r="E10" s="60" cm="1">
         <f t="array" ref="E10">_xlfn.IFS(OPT=0,Calcul!E23,OPT=1,Calcul!E23+Calcul!E63,OPT=2,Calcul!E23+Projects!E119,OPT=3,Calcul!E23)</f>
-        <v>5.3839795668749977</v>
+        <v>6.4036902998249978</v>
       </c>
       <c r="F10" s="60" cm="1">
         <f t="array" ref="F10">_xlfn.IFS(OPT=0,Calcul!F23,OPT=1,Calcul!F23+Calcul!F63,OPT=2,Calcul!F23+Projects!F119,OPT=3,Calcul!F23)</f>
-        <v>5.9762173192312478</v>
+        <v>7.0469135888287475</v>
       </c>
       <c r="G10" s="60" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(OPT=0,Calcul!G23,OPT=1,Calcul!G23+Calcul!G63,OPT=2,Calcul!G23+Projects!G119,OPT=3,Calcul!G23)</f>
-        <v>6.5140768779620615</v>
+        <v>7.6147526431082913</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="56"/>
@@ -21579,19 +21616,19 @@
       </c>
       <c r="D11" s="186" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(OPT=0,Calcul!D14,OPT=1,Calcul!D14,OPT=2,Calcul!D14+Projects!D120,OPT=3,Calcul!D14)</f>
-        <v>0.3965901730449739</v>
+        <v>0.47552278904497391</v>
       </c>
       <c r="E11" s="186" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(OPT=0,Calcul!E14,OPT=1,Calcul!E14,OPT=2,Calcul!E14+Projects!E120,OPT=3,Calcul!E14)</f>
-        <v>0.44814689554082043</v>
+        <v>0.53181546850082051</v>
       </c>
       <c r="F11" s="186" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(OPT=0,Calcul!F14,OPT=1,Calcul!F14,OPT=2,Calcul!F14+Projects!F120,OPT=3,Calcul!F14)</f>
-        <v>0.49744305405031075</v>
+        <v>0.58529505565831075</v>
       </c>
       <c r="G11" s="186" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(OPT=0,Calcul!G14,OPT=1,Calcul!G14,OPT=2,Calcul!G14+Projects!G120,OPT=3,Calcul!G14)</f>
-        <v>0.54221292891483874</v>
+        <v>0.63252478656786282</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="56"/>
@@ -21614,19 +21651,19 @@
       </c>
       <c r="D12" s="60">
         <f>SUM(D8:D11)</f>
-        <v>13.643973700065221</v>
+        <v>16.077867656008596</v>
       </c>
       <c r="E12" s="60">
         <f t="shared" ref="E12:G12" si="0">SUM(E8:E11)</f>
-        <v>15.756492486736125</v>
+        <v>18.439133095232506</v>
       </c>
       <c r="F12" s="60">
         <f t="shared" si="0"/>
-        <v>18.058537250127316</v>
+        <v>21.034813584829347</v>
       </c>
       <c r="G12" s="60">
         <f t="shared" si="0"/>
-        <v>20.418586168365938</v>
+        <v>23.726215771142492</v>
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="56"/>
@@ -21685,19 +21722,19 @@
       </c>
       <c r="D15" s="60" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(OPT=2,Projects!$C$170, OPT&lt;&gt;2,0)</f>
-        <v>0</v>
+        <v>1.6215082800000005</v>
       </c>
       <c r="E15" s="60" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(OPT=2,Projects!$C$170, OPT&lt;&gt;2,0)</f>
-        <v>0</v>
+        <v>1.6215082800000005</v>
       </c>
       <c r="F15" s="60" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(OPT=2,Projects!$C$170, OPT&lt;&gt;2,0)</f>
-        <v>0</v>
+        <v>1.6215082800000005</v>
       </c>
       <c r="G15" s="60" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(OPT=2,Projects!$C$170, OPT&lt;&gt;2,0)</f>
-        <v>0</v>
+        <v>1.6215082800000005</v>
       </c>
       <c r="H15" s="60"/>
       <c r="I15" s="56"/>
@@ -21720,19 +21757,19 @@
       </c>
       <c r="D16" s="60" cm="1">
         <f t="array" ref="D16">_xlfn.IFS(OPT=0,Calcul!D27,OPT=1,Calcul!D27+Calcul!D70,OPT=2,Calcul!D27+Projects!D124,OPT=3,Calcul!D27)</f>
-        <v>8.1445874999999983</v>
+        <v>9.7890169999999976</v>
       </c>
       <c r="E16" s="60" cm="1">
         <f t="array" ref="E16">_xlfn.IFS(OPT=0,Calcul!E27,OPT=1,Calcul!E27+Calcul!E70,OPT=2,Calcul!E27+Projects!E124,OPT=3,Calcul!E27)</f>
-        <v>9.2033838749999966</v>
+        <v>10.946479144999998</v>
       </c>
       <c r="F16" s="60" cm="1">
         <f t="array" ref="F16">_xlfn.IFS(OPT=0,Calcul!F27,OPT=1,Calcul!F27+Calcul!F70,OPT=2,Calcul!F27+Projects!F124,OPT=3,Calcul!F27)</f>
-        <v>10.215756101249998</v>
+        <v>12.046006134749998</v>
       </c>
       <c r="G16" s="60" cm="1">
         <f t="array" ref="G16">_xlfn.IFS(OPT=0,Calcul!G27,OPT=1,Calcul!G27+Calcul!G70,OPT=2,Calcul!G27+Projects!G124,OPT=3,Calcul!G27)</f>
-        <v>11.135174150362499</v>
+        <v>13.016671184800499</v>
       </c>
       <c r="H16" s="60"/>
       <c r="I16" s="56"/>
@@ -21755,19 +21792,19 @@
       </c>
       <c r="D17" s="186" cm="1">
         <f t="array" ref="D17">_xlfn.IFS(OPT=0,Calcul!D28,OPT=1,Calcul!D28,OPT=2,Calcul!D28+Projects!D125,OPT=3,Calcul!D28)</f>
-        <v>1.4646974999999998</v>
+        <v>1.7606948099999997</v>
       </c>
       <c r="E17" s="186" cm="1">
         <f t="array" ref="E17">_xlfn.IFS(OPT=0,Calcul!E28,OPT=1,Calcul!E28,OPT=2,Calcul!E28+Projects!E125,OPT=3,Calcul!E28)</f>
-        <v>1.6551081749999996</v>
+        <v>1.9688653235999998</v>
       </c>
       <c r="F17" s="186" cm="1">
         <f t="array" ref="F17">_xlfn.IFS(OPT=0,Calcul!F28,OPT=1,Calcul!F28,OPT=2,Calcul!F28+Projects!F125,OPT=3,Calcul!F28)</f>
-        <v>1.8371700742499997</v>
+        <v>2.1666150802799997</v>
       </c>
       <c r="G17" s="186" cm="1">
         <f t="array" ref="G17">_xlfn.IFS(OPT=0,Calcul!G28,OPT=1,Calcul!G28,OPT=2,Calcul!G28+Projects!G125,OPT=3,Calcul!G28)</f>
-        <v>2.0025153809325</v>
+        <v>2.3411848471313403</v>
       </c>
       <c r="H17" s="60"/>
       <c r="I17" s="56"/>
@@ -21790,19 +21827,19 @@
       </c>
       <c r="D18" s="176">
         <f>SUM(D15:D17)</f>
-        <v>9.6092849999999981</v>
+        <v>13.171220089999998</v>
       </c>
       <c r="E18" s="176">
         <f t="shared" ref="E18:G18" si="1">SUM(E15:E17)</f>
-        <v>10.858492049999995</v>
+        <v>14.536852748599998</v>
       </c>
       <c r="F18" s="176">
         <f t="shared" si="1"/>
-        <v>12.052926175499998</v>
+        <v>15.834129495029998</v>
       </c>
       <c r="G18" s="176">
         <f t="shared" si="1"/>
-        <v>13.137689531294999</v>
+        <v>16.979364311931839</v>
       </c>
       <c r="H18" s="60"/>
       <c r="I18" s="56"/>
@@ -21862,19 +21899,19 @@
       </c>
       <c r="D21" s="176">
         <f>SUM(D12,D18)</f>
-        <v>23.253258700065217</v>
+        <v>29.249087746008595</v>
       </c>
       <c r="E21" s="176">
         <f t="shared" ref="E21:G21" si="2">SUM(E12,E18)</f>
-        <v>26.61498453673612</v>
+        <v>32.975985843832504</v>
       </c>
       <c r="F21" s="176">
         <f t="shared" si="2"/>
-        <v>30.111463425627313</v>
+        <v>36.868943079859349</v>
       </c>
       <c r="G21" s="176">
         <f t="shared" si="2"/>
-        <v>33.556275699660937</v>
+        <v>40.705580083074331</v>
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="56"/>
@@ -21912,19 +21949,19 @@
       <c r="C23" s="60"/>
       <c r="D23" s="210">
         <f>(D21-C21)/C21</f>
-        <v>0.11435561892295089</v>
+        <v>0.40169107902470857</v>
       </c>
       <c r="E23" s="210">
         <f t="shared" ref="E23:G23" si="3">(E21-D21)/D21</f>
-        <v>0.14457009574582658</v>
+        <v>0.12741929355839451</v>
       </c>
       <c r="F23" s="210">
         <f t="shared" si="3"/>
-        <v>0.13137256886492174</v>
+        <v>0.11805430941361665</v>
       </c>
       <c r="G23" s="210">
         <f t="shared" si="3"/>
-        <v>0.11440202109545453</v>
+        <v>0.10406148597492201</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="56"/>
@@ -22003,19 +22040,19 @@
       </c>
       <c r="D27" s="60" cm="1">
         <f t="array" ref="D27">_xlfn.IFS(OPT=0,Calcul!D34, OPT=1,Calcul!D34, OPT=2,Calcul!D34+Projects!D135,OPT=3,Calcul!D34)</f>
-        <v>5.4222870205479436</v>
+        <v>5.7600767328117879</v>
       </c>
       <c r="E27" s="60" cm="1">
         <f t="array" ref="E27">_xlfn.IFS(OPT=0,Calcul!E34, OPT=1,Calcul!E34, OPT=2,Calcul!E34+Projects!E135,OPT=3,Calcul!E34)</f>
-        <v>6.1271843332191764</v>
+        <v>6.4852414282188517</v>
       </c>
       <c r="F27" s="60" cm="1">
         <f t="array" ref="F27">_xlfn.IFS(OPT=0,Calcul!F34, OPT=1,Calcul!F34, OPT=2,Calcul!F34+Projects!F135,OPT=3,Calcul!F34)</f>
-        <v>6.8011746098732857</v>
+        <v>7.177134559622945</v>
       </c>
       <c r="G27" s="60" cm="1">
         <f t="array" ref="G27">_xlfn.IFS(OPT=0,Calcul!G34, OPT=1,Calcul!G34, OPT=2,Calcul!G34+Projects!G135,OPT=3,Calcul!G34)</f>
-        <v>7.4132803247618826</v>
+        <v>7.7997671531045327</v>
       </c>
       <c r="H27" s="60"/>
       <c r="I27" s="56"/>
@@ -22038,19 +22075,19 @@
       </c>
       <c r="D28" s="60" cm="1">
         <f t="array" ref="D28">_xlfn.IFS(OPT=0, Calcul!D22, OPT=1, Calcul!D22+Calcul!D64, OPT=2, Calcul!D22+Projects!D136,OPT=3, Calcul!D22)</f>
-        <v>1.6467686506849313</v>
+        <v>1.9792587797260273</v>
       </c>
       <c r="E28" s="60" cm="1">
         <f t="array" ref="E28">_xlfn.IFS(OPT=0, Calcul!E22, OPT=1, Calcul!E22+Calcul!E64, OPT=2, Calcul!E22+Projects!E136,OPT=3, Calcul!E22)</f>
-        <v>1.7700754740410951</v>
+        <v>2.1053228382986293</v>
       </c>
       <c r="F28" s="60" cm="1">
         <f t="array" ref="F28">_xlfn.IFS(OPT=0, Calcul!F22, OPT=1, Calcul!F22+Calcul!F64, OPT=2, Calcul!F22+Projects!F136,OPT=3, Calcul!F22)</f>
-        <v>1.9647837761856155</v>
+        <v>2.3167935086560263</v>
       </c>
       <c r="G28" s="60" cm="1">
         <f t="array" ref="G28">_xlfn.IFS(OPT=0, Calcul!G22, OPT=1, Calcul!G22+Calcul!G64, OPT=2, Calcul!G22+Projects!G136,OPT=3, Calcul!G22)</f>
-        <v>2.1416143160423218</v>
+        <v>2.5034803210219043</v>
       </c>
       <c r="H28" s="60"/>
       <c r="I28" s="56"/>
@@ -22108,19 +22145,19 @@
       </c>
       <c r="D30" s="212" cm="1">
         <f t="array" ref="D30">_xlfn.IFS(OPT=0, Calcul!D15, OPT=1, Calcul!D15, OPT=2,Calcul!D15+Projects!D138,OPT=3, Calcul!D15)</f>
-        <v>0.54076123836687873</v>
+        <v>0.64995135716687868</v>
       </c>
       <c r="E30" s="212" cm="1">
         <f t="array" ref="E30">_xlfn.IFS(OPT=0, Calcul!E15, OPT=1, Calcul!E15, OPT=2,Calcul!E15+Projects!E138,OPT=3, Calcul!E15)</f>
-        <v>0.6110601993545729</v>
+        <v>0.72680172528257292</v>
       </c>
       <c r="F30" s="212" cm="1">
         <f t="array" ref="F30">_xlfn.IFS(OPT=0, Calcul!F15, OPT=1, Calcul!F15, OPT=2,Calcul!F15+Projects!F138,OPT=3, Calcul!F15)</f>
-        <v>0.67827682128357603</v>
+        <v>0.79980542350797612</v>
       </c>
       <c r="G30" s="212" cm="1">
         <f t="array" ref="G30">_xlfn.IFS(OPT=0, Calcul!G15, OPT=1, Calcul!G15, OPT=2,Calcul!G15+Projects!G138,OPT=3, Calcul!G15)</f>
-        <v>0.73932173519909794</v>
+        <v>0.86425313828578121</v>
       </c>
       <c r="H30" s="60"/>
       <c r="I30" s="56"/>
@@ -22143,19 +22180,19 @@
       </c>
       <c r="D31" s="60">
         <f>SUM(D27:D30)</f>
-        <v>8.1549016350564081</v>
+        <v>8.93437159516135</v>
       </c>
       <c r="E31" s="176">
         <f t="shared" ref="E31:F31" si="4">SUM(E27:E30)</f>
-        <v>9.1242657463808623</v>
+        <v>9.9333117315660733</v>
       </c>
       <c r="F31" s="176">
         <f t="shared" si="4"/>
-        <v>10.127934978482761</v>
+        <v>10.977433262927232</v>
       </c>
       <c r="G31" s="176">
         <f>SUM(G27:G30)</f>
-        <v>11.039449126546209</v>
+        <v>11.912733362955125</v>
       </c>
       <c r="H31" s="60"/>
       <c r="I31" s="56"/>
@@ -22231,19 +22268,19 @@
       </c>
       <c r="D34" s="60">
         <f>SUM(D31:D33)</f>
-        <v>16.290494552319913</v>
+        <v>17.069964512424857</v>
       </c>
       <c r="E34" s="176">
         <f t="shared" ref="E34:F34" si="5">SUM(E31:E33)</f>
-        <v>18.317485742888621</v>
+        <v>19.126531728073832</v>
       </c>
       <c r="F34" s="176">
         <f t="shared" si="5"/>
-        <v>20.332409174606376</v>
+        <v>21.181907459050848</v>
       </c>
       <c r="G34" s="176">
         <f>SUM(G31:G33)</f>
-        <v>22.162326000320952</v>
+        <v>23.035610236729866</v>
       </c>
       <c r="H34" s="60"/>
       <c r="I34" s="56"/>
@@ -22284,19 +22321,19 @@
       </c>
       <c r="D36" s="203" cm="1">
         <f t="array" ref="D36">_xlfn.IFS(OPT=0,C36, OPT=1, C36,OPT=2, $C$36+Projects!$C$168,OPT=3,C36+Projects!C17)</f>
-        <v>2.408455</v>
+        <v>7.43336328</v>
       </c>
       <c r="E36" s="203" cm="1">
         <f t="array" ref="E36">_xlfn.IFS(OPT=0,D36, OPT=1, D36,OPT=2, $C$36+Projects!$C$168,OPT=3,D36+Projects!D17)</f>
-        <v>2.408455</v>
+        <v>7.43336328</v>
       </c>
       <c r="F36" s="203" cm="1">
         <f t="array" ref="F36">_xlfn.IFS(OPT=0,E36, OPT=1, E36,OPT=2, $C$36+Projects!$C$168,OPT=3,E36+Projects!E17)</f>
-        <v>2.408455</v>
+        <v>7.43336328</v>
       </c>
       <c r="G36" s="203" cm="1">
         <f t="array" ref="G36">_xlfn.IFS(OPT=0,F36, OPT=1, F36,OPT=2, $C$36+Projects!$C$168,OPT=3,F36+Projects!F17)</f>
-        <v>2.408455</v>
+        <v>7.43336328</v>
       </c>
       <c r="H36" s="60"/>
       <c r="I36" s="56"/>
@@ -22319,19 +22356,19 @@
       </c>
       <c r="D37" s="212" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(OPT=0,C37+PL!D21, OPT=1,C37+PL!D21, OPT=2,C37+PL!D21,OPT=3,C37+PL!D21)</f>
-        <v>4.5543091477453039</v>
+        <v>4.7457599535837378</v>
       </c>
       <c r="E37" s="212" cm="1">
         <f t="array" ref="E37">_xlfn.IFS(OPT=0,D37+PL!E21, OPT=1,D37+PL!E21, OPT=2,D37+PL!E21,OPT=3,D37+PL!E21)</f>
-        <v>5.8890437938474989</v>
+        <v>6.4160908357586761</v>
       </c>
       <c r="F37" s="212" cm="1">
         <f t="array" ref="F37">_xlfn.IFS(OPT=0,E37+PL!F21, OPT=1,E37+PL!F21, OPT=2,E37+PL!F21,OPT=3,E37+PL!F21)</f>
-        <v>7.3705992510209386</v>
+        <v>8.253672340808496</v>
       </c>
       <c r="G37" s="212" cm="1">
         <f t="array" ref="G37">_xlfn.IFS(OPT=0,F37+PL!G21, OPT=1,F37+PL!G21, OPT=2,F37+PL!G21,OPT=3,F37+PL!G21)</f>
-        <v>8.9854946993399842</v>
+        <v>10.236606566344463</v>
       </c>
       <c r="H37" s="203"/>
       <c r="I37" s="56"/>
@@ -22354,19 +22391,19 @@
       </c>
       <c r="D38" s="203">
         <f>SUM(D36:D37)</f>
-        <v>6.9627641477453039</v>
+        <v>12.179123233583738</v>
       </c>
       <c r="E38" s="176">
         <f t="shared" ref="E38:F38" si="6">SUM(E36:E37)</f>
-        <v>8.2974987938474989</v>
+        <v>13.849454115758675</v>
       </c>
       <c r="F38" s="176">
         <f t="shared" si="6"/>
-        <v>9.7790542510209377</v>
+        <v>15.687035620808496</v>
       </c>
       <c r="G38" s="176">
         <f t="shared" ref="G38" si="7">SUM(G36:G37)</f>
-        <v>11.393949699339984</v>
+        <v>17.669969846344465</v>
       </c>
       <c r="H38" s="60"/>
       <c r="I38" s="56"/>
@@ -22407,19 +22444,19 @@
       </c>
       <c r="D40" s="176">
         <f>SUM(D38+D34)</f>
-        <v>23.253258700065217</v>
+        <v>29.249087746008595</v>
       </c>
       <c r="E40" s="176">
         <f t="shared" ref="E40:G40" si="8">SUM(E38+E34)</f>
-        <v>26.61498453673612</v>
+        <v>32.975985843832504</v>
       </c>
       <c r="F40" s="176">
         <f t="shared" si="8"/>
-        <v>30.111463425627313</v>
+        <v>36.868943079859342</v>
       </c>
       <c r="G40" s="176">
         <f t="shared" si="8"/>
-        <v>33.556275699660937</v>
+        <v>40.705580083074331</v>
       </c>
       <c r="H40" s="60"/>
       <c r="I40" s="56"/>
@@ -22575,7 +22612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -22606,7 +22643,7 @@
         <v>276</v>
       </c>
       <c r="C4" s="331">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="332" t="s">
         <v>277</v>
@@ -22637,7 +22674,7 @@
       </c>
       <c r="I5" s="340">
         <f>D26</f>
-        <v>0.60649411960606414</v>
+        <v>0.49371640240309961</v>
       </c>
       <c r="J5" s="341" t="s">
         <v>280</v>
@@ -22662,7 +22699,7 @@
       </c>
       <c r="I6" s="344">
         <f>D27</f>
-        <v>3.3396591075966766</v>
+        <v>2.4015758101005744</v>
       </c>
       <c r="J6" s="345" t="s">
         <v>283</v>
@@ -22725,19 +22762,19 @@
       </c>
       <c r="D12" s="314">
         <f>SUM(CF!D13,CF!D16)</f>
-        <v>-0.16776563634247382</v>
+        <v>-0.26947652105233899</v>
       </c>
       <c r="E12" s="314">
         <f>SUM(CF!E13,CF!E16)</f>
-        <v>-9.5053841557396712E-2</v>
+        <v>0.13115789917798537</v>
       </c>
       <c r="F12" s="314">
         <f>SUM(CF!F13,CF!F16)</f>
-        <v>9.9590782921014309E-2</v>
+        <v>0.34141831722989102</v>
       </c>
       <c r="G12" s="314">
         <f>SUM(CF!G13,CF!G16)</f>
-        <v>0.54603211221909831</v>
+        <v>0.88575314280814865</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -22746,7 +22783,7 @@
       </c>
       <c r="C13" s="309">
         <f>Calcul!D121</f>
-        <v>7.567439903697612E-2</v>
+        <v>7.9612329429853537E-2</v>
       </c>
       <c r="D13" s="314"/>
       <c r="E13" s="314"/>
@@ -22780,19 +22817,19 @@
       </c>
       <c r="D15" s="314">
         <f>1/(1+$C$13)^D14</f>
-        <v>0.9641832525702988</v>
+        <v>0.96242319709256507</v>
       </c>
       <c r="E15" s="314">
         <f t="shared" ref="E15:G15" si="1">1/(1+$C$13)^E14</f>
-        <v>0.89635232876557025</v>
+        <v>0.89145258057660726</v>
       </c>
       <c r="F15" s="314">
         <f t="shared" si="1"/>
-        <v>0.8332933549111623</v>
+        <v>0.82571545014439196</v>
       </c>
       <c r="G15" s="314">
         <f t="shared" si="1"/>
-        <v>0.77467062120023367</v>
+        <v>0.76482588021244124</v>
       </c>
       <c r="H15" s="315"/>
       <c r="I15" s="315"/>
@@ -22804,19 +22841,19 @@
       </c>
       <c r="D16" s="314">
         <f>D15*D12</f>
-        <v>-0.16175681691821234</v>
+        <v>-0.25935045493257403</v>
       </c>
       <c r="E16" s="314">
         <f t="shared" ref="E16:G16" si="2">E15*E12</f>
-        <v>-8.5201732238086081E-2</v>
+        <v>0.11692104768522153</v>
       </c>
       <c r="F16" s="314">
         <f t="shared" si="2"/>
-        <v>8.2988337618481303E-2</v>
+        <v>0.28191437949902026</v>
       </c>
       <c r="G16" s="314">
         <f t="shared" si="2"/>
-        <v>0.42299503556804458</v>
+        <v>0.67744692709917842</v>
       </c>
       <c r="H16" s="316"/>
       <c r="I16" s="316"/>
@@ -22828,7 +22865,7 @@
       </c>
       <c r="C17" s="318">
         <f>SUM(D16:G16)</f>
-        <v>0.25902482403022747</v>
+        <v>0.8169318993508462</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -22868,19 +22905,19 @@
       </c>
       <c r="D21" s="319">
         <f>BS!D38/BS!D21</f>
-        <v>0.2994317586861826</v>
+        <v>0.41639326803434173</v>
       </c>
       <c r="E21" s="319">
         <f>BS!E38/BS!E21</f>
-        <v>0.31176042136694204</v>
+        <v>0.41998605231536806</v>
       </c>
       <c r="F21" s="319">
         <f>BS!F38/BS!F21</f>
-        <v>0.3247618394627132</v>
+        <v>0.4254810230613299</v>
       </c>
       <c r="G21" s="319">
         <f>BS!G38/BS!G21</f>
-        <v>0.33954750525115968</v>
+        <v>0.43409207804636502</v>
       </c>
       <c r="H21" s="319"/>
       <c r="I21" s="319"/>
@@ -22895,19 +22932,19 @@
       </c>
       <c r="D22" s="320">
         <f>BS!D38/BS!D34</f>
-        <v>0.42741269305134411</v>
+        <v>0.71348263347113683</v>
       </c>
       <c r="E22" s="320">
         <f>BS!E38/BS!E34</f>
-        <v>0.45298240764668418</v>
+        <v>0.72409647042440595</v>
       </c>
       <c r="F22" s="320">
         <f>BS!F38/BS!F34</f>
-        <v>0.48095895410339412</v>
+        <v>0.74058654307384197</v>
       </c>
       <c r="G22" s="320">
         <f>BS!G38/BS!G34</f>
-        <v>0.51411344184608498</v>
+        <v>0.76707192319871842</v>
       </c>
       <c r="H22" s="321"/>
       <c r="I22" s="321"/>
@@ -22917,24 +22954,24 @@
         <v>293</v>
       </c>
       <c r="C23" s="320">
-        <f>'Noname co'!G14/'Noname co'!G64</f>
-        <v>0.27284577695869056</v>
+        <f>PL!C13/BS!C33</f>
+        <v>0</v>
       </c>
       <c r="D23" s="320">
         <f>PL!D13/BS!D33</f>
-        <v>0.29632725291408707</v>
+        <v>0.35615708178459554</v>
       </c>
       <c r="E23" s="320">
         <f>PL!E13/BS!E33</f>
-        <v>0.33637147628085584</v>
+        <v>0.40007929692938654</v>
       </c>
       <c r="F23" s="320">
         <f>PL!F13/BS!F33</f>
-        <v>0.33637147628085623</v>
+        <v>0.39663563094838511</v>
       </c>
       <c r="G23" s="320">
         <f>PL!G13/BS!G33</f>
-        <v>0.33637147628085573</v>
+        <v>0.39320776160032367</v>
       </c>
       <c r="H23" s="322"/>
       <c r="I23" s="322"/>
@@ -22944,24 +22981,24 @@
         <v>294</v>
       </c>
       <c r="C24" s="320">
-        <f>'Noname co'!G14/SUM('Noname co'!G58,'Noname co'!G60)</f>
-        <v>0.4067001675041868</v>
+        <f>PL!C13/SUM(BS!C29,BS!C27)</f>
+        <v>0</v>
       </c>
       <c r="D24" s="320">
         <f>PL!D13/SUM(BS!D29,BS!D27)</f>
-        <v>0.40399660061636467</v>
+        <v>0.45955191650171251</v>
       </c>
       <c r="E24" s="320">
         <f>PL!E13/SUM(BS!E29,BS!E27)</f>
-        <v>0.45859073583479248</v>
+        <v>0.51794395862455844</v>
       </c>
       <c r="F24" s="320">
         <f>PL!F13/SUM(BS!F29,BS!F27)</f>
-        <v>0.45859073583479321</v>
+        <v>0.51488911875885168</v>
       </c>
       <c r="G24" s="320">
         <f>PL!G13/SUM(BS!G29,BS!G27)</f>
-        <v>0.45859073583479237</v>
+        <v>0.51183166382788337</v>
       </c>
       <c r="H24" s="321"/>
       <c r="I24" s="321"/>
@@ -22971,24 +23008,24 @@
         <v>295</v>
       </c>
       <c r="C25" s="320">
-        <f>'Noname co'!G50/'Noname co'!G51</f>
+        <f>BS!C18/BS!C21</f>
         <v>0.43674941294867492</v>
       </c>
       <c r="D25" s="320">
         <f>BS!D18/BS!D21</f>
-        <v>0.4132446606278477</v>
+        <v>0.45031216714775579</v>
       </c>
       <c r="E25" s="320">
         <f>BS!E18/BS!E21</f>
-        <v>0.40798415775940955</v>
+        <v>0.44083148317213461</v>
       </c>
       <c r="F25" s="320">
         <f>BS!F18/BS!F21</f>
-        <v>0.40027699767132452</v>
+        <v>0.42947066480134105</v>
       </c>
       <c r="G25" s="320">
         <f>BS!G18/BS!G21</f>
-        <v>0.39151214660653616</v>
+        <v>0.41712620916541071</v>
       </c>
       <c r="I25" s="321"/>
     </row>
@@ -22997,24 +23034,24 @@
         <v>279</v>
       </c>
       <c r="C26" s="323">
-        <f>SUM('Noname co'!G58,'Noname co'!G60,'Noname co'!G64)/'Noname co'!G51</f>
+        <f>SUM(BS!C27,BS!C29,BS!C33)/BS!C21</f>
         <v>0.62348205300234816</v>
       </c>
       <c r="D26" s="323">
         <f>SUM(BS!D27,BS!D29,BS!D33)/BS!D21</f>
-        <v>0.60649411960606414</v>
+        <v>0.49371640240309961</v>
       </c>
       <c r="E26" s="323">
         <f>SUM(BS!E27,BS!E29,BS!E33)/BS!E21</f>
-        <v>0.59877359866568158</v>
+        <v>0.49412949294858383</v>
       </c>
       <c r="F26" s="323">
         <f>SUM(BS!F27,BS!F29,BS!F33)/BS!F21</f>
-        <v>0.58746226734639884</v>
+        <v>0.48998715498181733</v>
       </c>
       <c r="G26" s="323">
         <f>SUM(BS!G27,BS!G29,BS!G33)/BS!G21</f>
-        <v>0.57459862714366594</v>
+        <v>0.4831739711676587</v>
       </c>
     </row>
     <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -23027,19 +23064,19 @@
       </c>
       <c r="D27" s="324">
         <f>BS!D40/BS!D38</f>
-        <v>3.3396591075966766</v>
+        <v>2.4015758101005744</v>
       </c>
       <c r="E27" s="324">
         <f>BS!E40/BS!E38</f>
-        <v>3.2075912510491511</v>
+        <v>2.38103145208522</v>
       </c>
       <c r="F27" s="324">
         <f>BS!F40/BS!F38</f>
-        <v>3.0791795047546304</v>
+        <v>2.3502810837602439</v>
       </c>
       <c r="G27" s="324">
         <f>BS!G40/BS!G38</f>
-        <v>2.9450960013984218</v>
+        <v>2.3036587179856132</v>
       </c>
     </row>
     <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
@@ -23083,19 +23120,19 @@
       </c>
       <c r="D36" s="314">
         <f>SUM(BS!D38,BS!D33)-BS!D18</f>
-        <v>5.4890720650088127</v>
+        <v>7.143496060847248</v>
       </c>
       <c r="E36" s="314">
         <f>SUM(BS!E38,BS!E33)-BS!E18</f>
-        <v>6.6322267403552644</v>
+        <v>8.5058213636664348</v>
       </c>
       <c r="F36" s="314">
         <f>SUM(BS!F38,BS!F33)-BS!F18</f>
-        <v>7.9306022716445561</v>
+        <v>10.057380321902116</v>
       </c>
       <c r="G36" s="314">
         <f>SUM(BS!G38,BS!G33)-BS!G18</f>
-        <v>9.3791370418197282</v>
+        <v>11.813482408187369</v>
       </c>
     </row>
     <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -23108,19 +23145,19 @@
       </c>
       <c r="D37" s="314">
         <f>BS!D12-BS!D31</f>
-        <v>5.4890720650088127</v>
+        <v>7.1434960608472462</v>
       </c>
       <c r="E37" s="314">
         <f>BS!E12-BS!E31</f>
-        <v>6.6322267403552626</v>
+        <v>8.505821363666433</v>
       </c>
       <c r="F37" s="314">
         <f>BS!F12-BS!F31</f>
-        <v>7.9306022716445543</v>
+        <v>10.057380321902116</v>
       </c>
       <c r="G37" s="314">
         <f>BS!G12-BS!G31</f>
-        <v>9.3791370418197282</v>
+        <v>11.813482408187367</v>
       </c>
     </row>
     <row r="38" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -23133,19 +23170,19 @@
       </c>
       <c r="D38" s="326">
         <f>SUM(BS!D9,BS!D10,-BS!D28)/SUM(BS!D27,BS!D29)</f>
-        <v>1.6852199924359514</v>
+        <v>1.9169618656924248</v>
       </c>
       <c r="E38" s="326">
         <f>SUM(BS!E9,BS!E10,-BS!E28)/SUM(BS!E27,BS!E29)</f>
-        <v>1.6577359586102363</v>
+        <v>1.8722888572833676</v>
       </c>
       <c r="F38" s="326">
         <f>SUM(BS!F9,BS!F10,-BS!F28)/SUM(BS!F27,BS!F29)</f>
-        <v>1.6577359586102363</v>
+        <v>1.8612460744762518</v>
       </c>
       <c r="G38" s="326">
         <f>SUM(BS!G9,BS!G10,-BS!G28)/SUM(BS!G27,BS!G29)</f>
-        <v>1.657735958610236</v>
+        <v>1.8501938386048282</v>
       </c>
       <c r="H38" s="320"/>
       <c r="I38" s="320"/>
@@ -23160,19 +23197,19 @@
       </c>
       <c r="D39" s="314">
         <f>BS!D12/SUM(BS!D27,BS!D29)</f>
-        <v>2.2864293160888498</v>
+        <v>2.5499533616105028</v>
       </c>
       <c r="E39" s="314">
         <f>BS!E12/SUM(BS!E27,BS!E29)</f>
-        <v>2.3366733721867381</v>
+        <v>2.5966268257741252</v>
       </c>
       <c r="F39" s="314">
         <f>BS!F12/SUM(BS!F27,BS!F29)</f>
-        <v>2.4126707184205154</v>
+        <v>2.6759008903813175</v>
       </c>
       <c r="G39" s="314">
         <f>BS!G12/SUM(BS!G27,BS!G29)</f>
-        <v>2.5027337677709278</v>
+        <v>2.7766197821740102</v>
       </c>
       <c r="H39" s="316"/>
       <c r="I39" s="316"/>
@@ -23221,19 +23258,19 @@
       </c>
       <c r="D51" s="320">
         <f>PL!D19/PL!D6</f>
-        <v>2.8956627568471224E-2</v>
+        <v>2.8981713730391372E-2</v>
       </c>
       <c r="E51" s="320">
         <f>PL!E19/PL!E6</f>
-        <v>3.6256627568471249E-2</v>
+        <v>3.8147674244140235E-2</v>
       </c>
       <c r="F51" s="320">
         <f>PL!F19/PL!F6</f>
-        <v>3.6256627568471339E-2</v>
+        <v>3.8136737697418509E-2</v>
       </c>
       <c r="G51" s="320">
         <f>PL!G19/PL!G6</f>
-        <v>3.6256627568471235E-2</v>
+        <v>3.80845109587509E-2</v>
       </c>
       <c r="H51" s="321"/>
       <c r="I51" s="321"/>
@@ -23248,19 +23285,19 @@
       </c>
       <c r="D52" s="320">
         <f>PL!D19/BS!D21</f>
-        <v>4.0568900897432432E-2</v>
+        <v>3.8798131532789326E-2</v>
       </c>
       <c r="E52" s="320">
         <f>PL!E19/BS!E21</f>
-        <v>5.0149743437193715E-2</v>
+        <v>5.0652947574798296E-2</v>
       </c>
       <c r="F52" s="320">
         <f>PL!F19/BS!F21</f>
-        <v>4.9202373070732761E-2</v>
+        <v>4.9840905421930787E-2</v>
       </c>
       <c r="G52" s="320">
         <f>PL!G19/BS!G21</f>
-        <v>4.8124990471912307E-2</v>
+        <v>4.8714063808673852E-2</v>
       </c>
       <c r="H52" s="321"/>
       <c r="I52" s="321"/>
@@ -23275,19 +23312,19 @@
       </c>
       <c r="D53" s="327">
         <f>PL!D21/BS!D38</f>
-        <v>0.1354862993672972</v>
+        <v>9.3176654166247166E-2</v>
       </c>
       <c r="E53" s="327">
         <f>PL!E21/BS!E38</f>
-        <v>0.16085987829150214</v>
+        <v>0.12060626131641851</v>
       </c>
       <c r="F53" s="327">
         <f>PL!F21/BS!F38</f>
-        <v>0.15150293874469145</v>
+        <v>0.11714013721064732</v>
       </c>
       <c r="G53" s="327">
         <f>PL!G21/BS!G38</f>
-        <v>0.14173271700616608</v>
+        <v>0.11222057778135897</v>
       </c>
     </row>
     <row r="54" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">

--- a/2.Financial planning & analysis.xlsx
+++ b/2.Financial planning & analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B77B2B8-E90A-1A43-B7A2-D613A85C8418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1A2CDA-FA7A-2C4B-9637-11E91B3EB193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-7600" windowWidth="25380" windowHeight="28800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="25" r:id="rId1"/>
@@ -2981,6 +2981,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="29" fillId="19" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3013,21 +3028,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3192,16 +3192,16 @@
                   <c:v>4.6922049999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.143496060847248</c:v>
+                  <c:v>9.4890720650088145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5058213636664348</c:v>
+                  <c:v>10.632226740355264</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.057380321902116</c:v>
+                  <c:v>11.930602271644556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.813482408187369</c:v>
+                  <c:v>13.379137041819728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3269,16 +3269,16 @@
                   <c:v>4.6921000000000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1434960608472462</c:v>
+                  <c:v>9.4890720650088127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.505821363666433</c:v>
+                  <c:v>10.632226740355263</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.057380321902116</c:v>
+                  <c:v>11.930602271644554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.813482408187367</c:v>
+                  <c:v>13.379137041819728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3363,16 +3363,16 @@
                   <c:v>1.6485762144053604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9169618656924248</c:v>
+                  <c:v>1.6852199924359514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8722888572833676</c:v>
+                  <c:v>1.6577359586102363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8612460744762518</c:v>
+                  <c:v>1.6577359586102363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8501938386048282</c:v>
+                  <c:v>1.657735958610236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,16 +3443,16 @@
                   <c:v>2.24998324958124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5499533616105028</c:v>
+                  <c:v>2.9567411669766659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5966268257741252</c:v>
+                  <c:v>2.9298697004060443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6759008903813175</c:v>
+                  <c:v>2.9470818249243949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7766197821740102</c:v>
+                  <c:v>2.9930191865818259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3865,16 +3865,16 @@
                   <c:v>2.933036817395587E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8981713730391372E-2</c:v>
+                  <c:v>2.8956627568471224E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8147674244140235E-2</c:v>
+                  <c:v>3.6256627568471249E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8136737697418509E-2</c:v>
+                  <c:v>3.6256627568471339E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.80845109587509E-2</c:v>
+                  <c:v>3.6256627568471235E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,16 +3942,16 @@
                   <c:v>3.9818852733981683E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8798131532789326E-2</c:v>
+                  <c:v>3.4614544929375615E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0652947574798296E-2</c:v>
+                  <c:v>4.3597430026482427E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9840905421930787E-2</c:v>
+                  <c:v>4.3432773278802649E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8714063808673852E-2</c:v>
+                  <c:v>4.2999350128149809E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4021,16 +4021,16 @@
                   <c:v>0.13803689899583027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3176654166247166E-2</c:v>
+                  <c:v>8.6051212543811192E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12060626131641851</c:v>
+                  <c:v>0.10853708290420561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11714013721064732</c:v>
+                  <c:v>0.10752228927929985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11222057778135897</c:v>
+                  <c:v>0.10490455535191749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4444,19 +4444,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.41639326803434173</c:v>
+                  <c:v>0.40225516766253977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71348263347113683</c:v>
+                  <c:v>0.67295465539958743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35615708178459554</c:v>
+                  <c:v>0.29632725291408707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45955191650171251</c:v>
+                  <c:v>0.40399660061636467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45031216714775579</c:v>
+                  <c:v>0.3525921470806353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4521,19 +4521,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.41998605231536806</c:v>
+                  <c:v>0.4016823454243868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72409647042440595</c:v>
+                  <c:v>0.67135298842100888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40007929692938654</c:v>
+                  <c:v>0.33637147628085584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51794395862455844</c:v>
+                  <c:v>0.45859073583479248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44083148317213461</c:v>
+                  <c:v>0.35467899835031647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,19 +4600,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.4254810230613299</c:v>
+                  <c:v>0.40394204373738446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74058654307384197</c:v>
+                  <c:v>0.6776892070532361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39663563094838511</c:v>
+                  <c:v>0.33637147628085623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51488911875885168</c:v>
+                  <c:v>0.45859073583479321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42947066480134105</c:v>
+                  <c:v>0.35333946319186227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4679,19 +4679,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.43409207804636502</c:v>
+                  <c:v>0.40989020909437418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76707192319871842</c:v>
+                  <c:v>0.69459991244227026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39320776160032367</c:v>
+                  <c:v>0.33637147628085573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51183166382788337</c:v>
+                  <c:v>0.45859073583479237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41712620916541071</c:v>
+                  <c:v>0.34981342762412432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5062,16 +5062,16 @@
                   <c:v>0.62348205300234816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49371640240309961</c:v>
+                  <c:v>0.51747810485629586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49412949294858383</c:v>
+                  <c:v>0.5205408498694587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48998715498181733</c:v>
+                  <c:v>0.51857489537805945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4831739711676587</c:v>
+                  <c:v>0.51339994687635138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5163,16 +5163,16 @@
                   <c:v>3.466639144566614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4015758101005744</c:v>
+                  <c:v>2.485984221932783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.38103145208522</c:v>
+                  <c:v>2.4895293791004844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3502810837602439</c:v>
+                  <c:v>2.4756026650450176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3036587179856132</c:v>
+                  <c:v>2.4396776937156788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7600,7 +7600,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="15" fmlaLink="OPT" max="3" page="10" val="2"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="15" fmlaLink="OPT" max="3" page="10" val="3"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11930,27 +11930,27 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="359" t="s">
+      <c r="B36" s="348" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="359"/>
-      <c r="D36" s="360">
+      <c r="C36" s="348"/>
+      <c r="D36" s="349">
         <f>('Noname co'!C58+'Noname co'!C60+'Noname co'!C64)/'Noname co'!C51</f>
         <v>0.63291759708076911</v>
       </c>
-      <c r="E36" s="360">
+      <c r="E36" s="349">
         <f>('Noname co'!D58+'Noname co'!D60+'Noname co'!D64)/'Noname co'!D51</f>
         <v>0.63464000787944452</v>
       </c>
-      <c r="F36" s="360">
+      <c r="F36" s="349">
         <f>('Noname co'!E58+'Noname co'!E60+'Noname co'!E64)/'Noname co'!E51</f>
         <v>0.62591282260625025</v>
       </c>
-      <c r="G36" s="360">
+      <c r="G36" s="349">
         <f>('Noname co'!F58+'Noname co'!F60+'Noname co'!F64)/'Noname co'!F51</f>
         <v>0.61830636354611357</v>
       </c>
-      <c r="H36" s="360">
+      <c r="H36" s="349">
         <f>('Noname co'!G58+'Noname co'!G60+'Noname co'!G64)/'Noname co'!G51</f>
         <v>0.62348205300234816</v>
       </c>
@@ -11960,27 +11960,27 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="359" t="s">
+      <c r="B37" s="348" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="359"/>
-      <c r="D37" s="361">
+      <c r="C37" s="348"/>
+      <c r="D37" s="350">
         <f>'Noname co'!C51/'Noname co'!C69</f>
         <v>3.4952361916183623</v>
       </c>
-      <c r="E37" s="361">
+      <c r="E37" s="350">
         <f>'Noname co'!D51/'Noname co'!D69</f>
         <v>3.5555010812183183</v>
       </c>
-      <c r="F37" s="361">
+      <c r="F37" s="350">
         <f>'Noname co'!E51/'Noname co'!E69</f>
         <v>3.4528554536698435</v>
       </c>
-      <c r="G37" s="361">
+      <c r="G37" s="350">
         <f>'Noname co'!F51/'Noname co'!F69</f>
         <v>3.3974622747785728</v>
       </c>
-      <c r="H37" s="361">
+      <c r="H37" s="350">
         <f>'Noname co'!G51/'Noname co'!G69</f>
         <v>3.4666217009820741</v>
       </c>
@@ -15258,11 +15258,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="347" t="str">
+      <c r="B1" s="352" t="str">
         <f>Input!B2</f>
         <v>Noname co, by elie diwambuena</v>
       </c>
-      <c r="C1" s="347"/>
+      <c r="C1" s="352"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.15">
       <c r="B2" s="107"/>
@@ -17394,8 +17394,8 @@
   </sheetPr>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -17581,7 +17581,7 @@
         <f>C20/SUM($C$20:$C$23)</f>
         <v>0.1735395090471876</v>
       </c>
-      <c r="F20" s="362">
+      <c r="F20" s="351">
         <f>D20/D6-1</f>
         <v>-0.30584196381124962</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>104</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C20:C21" si="0">C7</f>
+        <f t="shared" ref="C21" si="0">C7</f>
         <v>63550.55</v>
       </c>
       <c r="D21" s="62">
@@ -18077,13 +18077,13 @@
         <v>166</v>
       </c>
       <c r="C53" s="153"/>
-      <c r="D53" s="358">
+      <c r="D53" s="347">
         <f>Calcul!D121</f>
         <v>7.9612329429853537E-2</v>
       </c>
-      <c r="E53" s="350"/>
-      <c r="F53" s="351"/>
-      <c r="G53" s="352"/>
+      <c r="E53" s="355"/>
+      <c r="F53" s="356"/>
+      <c r="G53" s="357"/>
       <c r="H53" s="51"/>
       <c r="I53" s="1"/>
       <c r="J53" s="51"/>
@@ -18200,10 +18200,10 @@
         <f>SUM(D57:G57)</f>
         <v>0.80767577810271485</v>
       </c>
-      <c r="D58" s="350"/>
-      <c r="E58" s="351"/>
-      <c r="F58" s="351"/>
-      <c r="G58" s="352"/>
+      <c r="D58" s="355"/>
+      <c r="E58" s="356"/>
+      <c r="F58" s="356"/>
+      <c r="G58" s="357"/>
       <c r="H58" s="51"/>
       <c r="I58" s="2"/>
       <c r="J58" s="51"/>
@@ -18217,12 +18217,12 @@
         <f>IRR(D49:G49)</f>
         <v>0.24954953354154941</v>
       </c>
-      <c r="D59" s="353" t="s">
+      <c r="D59" s="358" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="354"/>
-      <c r="F59" s="354"/>
-      <c r="G59" s="355"/>
+      <c r="E59" s="359"/>
+      <c r="F59" s="359"/>
+      <c r="G59" s="360"/>
       <c r="H59" s="51"/>
       <c r="I59" s="2"/>
       <c r="J59" s="51"/>
@@ -19950,9 +19950,9 @@
         <v>7.3835078031724274E-2</v>
       </c>
       <c r="D154" s="8"/>
-      <c r="E154" s="348"/>
-      <c r="F154" s="348"/>
-      <c r="G154" s="348"/>
+      <c r="E154" s="353"/>
+      <c r="F154" s="353"/>
+      <c r="G154" s="353"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
@@ -20014,13 +20014,13 @@
       <c r="B158" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C158" s="350">
+      <c r="C158" s="355">
         <f>G158*G157</f>
         <v>5.9379429334258091</v>
       </c>
-      <c r="D158" s="351"/>
-      <c r="E158" s="351"/>
-      <c r="F158" s="352"/>
+      <c r="D158" s="356"/>
+      <c r="E158" s="356"/>
+      <c r="F158" s="357"/>
       <c r="G158" s="153">
         <f>G153*(1+C155)/(C154-C155)</f>
         <v>7.6193438397513393</v>
@@ -20056,10 +20056,10 @@
         <f>SUM(D159:G159,C158)</f>
         <v>12.448150874024243</v>
       </c>
-      <c r="D160" s="348"/>
-      <c r="E160" s="348"/>
-      <c r="F160" s="348"/>
-      <c r="G160" s="348"/>
+      <c r="D160" s="353"/>
+      <c r="E160" s="353"/>
+      <c r="F160" s="353"/>
+      <c r="G160" s="353"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
@@ -20082,13 +20082,13 @@
         <f>C160-C161</f>
         <v>12.132450874024244</v>
       </c>
-      <c r="D162" s="349" t="str">
+      <c r="D162" s="354" t="str">
         <f>"Greater than "  &amp;Input!C85</f>
         <v>Greater than 1.32825</v>
       </c>
-      <c r="E162" s="349"/>
-      <c r="F162" s="349"/>
-      <c r="G162" s="349"/>
+      <c r="E162" s="354"/>
+      <c r="F162" s="354"/>
+      <c r="G162" s="354"/>
     </row>
     <row r="165" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B165" s="6" t="s">
@@ -20327,19 +20327,19 @@
       <c r="C6" s="157"/>
       <c r="D6" s="158" cm="1">
         <f t="array" ref="D6">_xlfn.IFS(OPT=0,Calcul!D5, OPT=1, Calcul!D5+Projects!D29, OPT=2, Calcul!D5+Projects!D68,OPT=3,Calcul!D5)</f>
-        <v>39.156067999999991</v>
+        <v>32.578349999999993</v>
       </c>
       <c r="E6" s="158" cm="1">
         <f t="array" ref="E6">_xlfn.IFS(OPT=0,Calcul!E5, OPT=1, Calcul!E5+Projects!E29, OPT=2, Calcul!E5+Projects!E68,OPT=3,Calcul!E5)</f>
-        <v>43.785916579999991</v>
+        <v>36.813535499999986</v>
       </c>
       <c r="F6" s="158" cm="1">
         <f t="array" ref="F6">_xlfn.IFS(OPT=0,Calcul!F5, OPT=1, Calcul!F5+Projects!F29, OPT=2, Calcul!F5+Projects!F68,OPT=3,Calcul!F5)</f>
-        <v>48.184024538999992</v>
+        <v>40.86302440499999</v>
       </c>
       <c r="G6" s="158" cm="1">
         <f t="array" ref="G6">_xlfn.IFS(OPT=0,Calcul!G5, OPT=1, Calcul!G5+Projects!G29, OPT=2, Calcul!G5+Projects!G68,OPT=3,Calcul!G5)</f>
-        <v>52.066684739201996</v>
+        <v>44.540696601449994</v>
       </c>
       <c r="H6" s="158"/>
       <c r="I6" s="6"/>
@@ -20357,19 +20357,19 @@
       <c r="C7" s="157"/>
       <c r="D7" s="189" cm="1">
         <f t="array" ref="D7">_xlfn.IFS(OPT=0, Calcul!D9, OPT=1,Calcul!D9+Projects!D30, OPT=2,Calcul!D9+Projects!D69, OPT=3, Calcul!D9)</f>
-        <v>-24.080981819999998</v>
+        <v>-20.035685249999997</v>
       </c>
       <c r="E7" s="189" cm="1">
         <f t="array" ref="E7">_xlfn.IFS(OPT=0, Calcul!E9, OPT=1,Calcul!E9+Projects!E30, OPT=2,Calcul!E9+Projects!E69, OPT=3, Calcul!E9)</f>
-        <v>-25.614761199299991</v>
+        <v>-21.535918267499991</v>
       </c>
       <c r="F7" s="189" cm="1">
         <f t="array" ref="F7">_xlfn.IFS(OPT=0, Calcul!F9, OPT=1,Calcul!F9+Projects!F30, OPT=2,Calcul!F9+Projects!F69, OPT=3, Calcul!F9)</f>
-        <v>-28.18765435531499</v>
+        <v>-23.904869276924991</v>
       </c>
       <c r="G7" s="189" cm="1">
         <f t="array" ref="G7">_xlfn.IFS(OPT=0, Calcul!G9, OPT=1,Calcul!G9+Projects!G30, OPT=2,Calcul!G9+Projects!G69, OPT=3, Calcul!G9)</f>
-        <v>-30.459010572433165</v>
+        <v>-26.056307511848246</v>
       </c>
       <c r="H7" s="161"/>
       <c r="I7" s="7"/>
@@ -20387,19 +20387,19 @@
       <c r="C8" s="157"/>
       <c r="D8" s="161">
         <f>SUM(D6:D7)</f>
-        <v>15.075086179999992</v>
+        <v>12.542664749999997</v>
       </c>
       <c r="E8" s="161">
         <f t="shared" ref="E8:G8" si="0">SUM(E6:E7)</f>
-        <v>18.1711553807</v>
+        <v>15.277617232499995</v>
       </c>
       <c r="F8" s="161">
         <f t="shared" si="0"/>
-        <v>19.996370183685002</v>
+        <v>16.958155128074999</v>
       </c>
       <c r="G8" s="161">
         <f t="shared" si="0"/>
-        <v>21.607674166768831</v>
+        <v>18.484389089601748</v>
       </c>
       <c r="H8" s="161"/>
       <c r="I8" s="6"/>
@@ -20449,19 +20449,19 @@
       <c r="C11" s="157"/>
       <c r="D11" s="110" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(OPT=0, Calcul!D11, OPT=1, Calcul!D11, OPT=2, Calcul!D11+Projects!D73, OPT=3, Calcul!D11)</f>
-        <v>-0.39156067999999994</v>
+        <v>-0.32578349999999995</v>
       </c>
       <c r="E11" s="110" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(OPT=0, Calcul!E11, OPT=1, Calcul!E11, OPT=2, Calcul!E11+Projects!E73, OPT=3, Calcul!E11)</f>
-        <v>-0.70057466527999979</v>
+        <v>-0.5890165679999998</v>
       </c>
       <c r="F11" s="110" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(OPT=0, Calcul!F11, OPT=1, Calcul!F11, OPT=2, Calcul!F11+Projects!F73, OPT=3, Calcul!F11)</f>
-        <v>-0.77094439262399983</v>
+        <v>-0.65380839047999983</v>
       </c>
       <c r="G11" s="110" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(OPT=0, Calcul!G11, OPT=1, Calcul!G11, OPT=2, Calcul!G11+Projects!G73, OPT=3, Calcul!G11)</f>
-        <v>-0.833066955827232</v>
+        <v>-0.71265114562319998</v>
       </c>
       <c r="H11" s="110"/>
     </row>
@@ -20473,19 +20473,19 @@
       <c r="C12" s="157"/>
       <c r="D12" s="189" cm="1">
         <f t="array" ref="D12">_xlfn.IFS(OPT=0,Calcul!D10,OPT=1,Calcul!D10+SUM(Projects!D34:D35),OPT=2,Calcul!D10+Projects!D74,OPT=3,Calcul!D10)</f>
-        <v>-11.785976467999998</v>
+        <v>-9.806083349999998</v>
       </c>
       <c r="E12" s="189" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(OPT=0,Calcul!E10,OPT=1,Calcul!E10+SUM(Projects!E34:E35),OPT=2,Calcul!E10+Projects!E74,OPT=3,Calcul!E10)</f>
-        <v>-13.792563722699997</v>
+        <v>-11.596263682499997</v>
       </c>
       <c r="F12" s="189" cm="1">
         <f t="array" ref="F12">_xlfn.IFS(OPT=0,Calcul!F10,OPT=1,Calcul!F10+SUM(Projects!F34:F35),OPT=2,Calcul!F10+Projects!F74,OPT=3,Calcul!F10)</f>
-        <v>-15.177967729784998</v>
+        <v>-12.871852687574997</v>
       </c>
       <c r="G12" s="189" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(OPT=0,Calcul!G10,OPT=1,Calcul!G10+SUM(Projects!G34:G35),OPT=2,Calcul!G10+Projects!G74,OPT=3,Calcul!G10)</f>
-        <v>-16.401005692848628</v>
+        <v>-14.030319429456748</v>
       </c>
       <c r="H12" s="161"/>
     </row>
@@ -20497,19 +20497,19 @@
       <c r="C13" s="157"/>
       <c r="D13" s="161">
         <f>SUM(D8:D12)</f>
-        <v>2.8975490319999953</v>
+        <v>2.4107978999999986</v>
       </c>
       <c r="E13" s="161">
         <f t="shared" ref="E13:G13" si="1">SUM(E8:E12)</f>
-        <v>3.6780169927200017</v>
+        <v>3.0923369819999991</v>
       </c>
       <c r="F13" s="161">
         <f t="shared" si="1"/>
-        <v>4.0474580612760054</v>
+        <v>3.4324940500200043</v>
       </c>
       <c r="G13" s="161">
         <f t="shared" si="1"/>
-        <v>4.3736015180929719</v>
+        <v>3.7414185145217989</v>
       </c>
       <c r="H13" s="161"/>
     </row>
@@ -20530,19 +20530,19 @@
       <c r="C15" s="157"/>
       <c r="D15" s="189" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(OPT=0, Calcul!D36+Calcul!D41, OPT=1,Calcul!D36+Calcul!D41, OPT=2,Calcul!D36+Calcul!D41+Projects!D77+Input!D118,OPT=3, Calcul!D36+Calcul!D41)</f>
-        <v>-1.3430148490085734</v>
+        <v>-1.1185250948694447</v>
       </c>
       <c r="E15" s="189" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(OPT=0, Calcul!E36+Calcul!E41, OPT=1,Calcul!E36+Calcul!E41, OPT=2,Calcul!E36+Calcul!E41+Projects!E77+Input!E118,OPT=3, Calcul!E36+Calcul!E41)</f>
-        <v>-1.3898924965899488</v>
+        <v>-1.2639333572024722</v>
       </c>
       <c r="F15" s="189" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(OPT=0, Calcul!F36+Calcul!F41, OPT=1,Calcul!F36+Calcul!F41, OPT=2,Calcul!F36+Calcul!F41+Projects!F77+Input!F118,OPT=3, Calcul!F36+Calcul!F41)</f>
-        <v>-1.530223122851595</v>
+        <v>-1.4029660264947446</v>
       </c>
       <c r="G15" s="189" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(OPT=0, Calcul!G36+Calcul!G41, OPT=1,Calcul!G36+Calcul!G41, OPT=2,Calcul!G36+Calcul!G41+Projects!G77+Input!G118,OPT=3, Calcul!G36+Calcul!G41)</f>
-        <v>-1.6572532639341138</v>
+        <v>-1.5292329688792716</v>
       </c>
       <c r="H15" s="161"/>
     </row>
@@ -20554,19 +20554,19 @@
       <c r="C16" s="157"/>
       <c r="D16" s="161">
         <f>SUM(D13:D15)</f>
-        <v>1.5545341829914219</v>
+        <v>1.2922728051305539</v>
       </c>
       <c r="E16" s="161">
         <f t="shared" ref="E16:G16" si="2">SUM(E13:E15)</f>
-        <v>2.2881244961300529</v>
+        <v>1.8284036247975268</v>
       </c>
       <c r="F16" s="161">
         <f t="shared" si="2"/>
-        <v>2.5172349384244104</v>
+        <v>2.02952802352526</v>
       </c>
       <c r="G16" s="161">
         <f t="shared" si="2"/>
-        <v>2.7163482541588584</v>
+        <v>2.2121855456425275</v>
       </c>
       <c r="H16" s="161"/>
     </row>
@@ -20587,19 +20587,19 @@
       <c r="C18" s="157"/>
       <c r="D18" s="189">
         <f xml:space="preserve"> -D16*Input!D19</f>
-        <v>-0.41972422940768395</v>
+        <v>-0.34891365738524954</v>
       </c>
       <c r="E18" s="189">
         <f xml:space="preserve"> -E16*Input!E19</f>
-        <v>-0.61779361395511434</v>
+        <v>-0.49366897869533227</v>
       </c>
       <c r="F18" s="189">
         <f xml:space="preserve"> -F16*Input!F19</f>
-        <v>-0.67965343337459083</v>
+        <v>-0.54797256635182023</v>
       </c>
       <c r="G18" s="189">
         <f xml:space="preserve"> -G16*Input!G19</f>
-        <v>-0.73341402862289184</v>
+        <v>-0.59729009732348248</v>
       </c>
       <c r="H18" s="161"/>
     </row>
@@ -20611,19 +20611,19 @@
       <c r="C19" s="157"/>
       <c r="D19" s="161">
         <f>SUM(D16:D18)</f>
-        <v>1.1348099535837379</v>
+        <v>0.94335914774530427</v>
       </c>
       <c r="E19" s="161">
         <f t="shared" ref="E19:G19" si="3">SUM(E16:E18)</f>
-        <v>1.6703308821749385</v>
+        <v>1.3347346461021945</v>
       </c>
       <c r="F19" s="161">
         <f t="shared" si="3"/>
-        <v>1.8375815050498194</v>
+        <v>1.4815554571734397</v>
       </c>
       <c r="G19" s="161">
         <f t="shared" si="3"/>
-        <v>1.9829342255359665</v>
+        <v>1.614895448319045</v>
       </c>
       <c r="H19" s="161"/>
     </row>
@@ -20642,19 +20642,19 @@
       <c r="C21" s="157"/>
       <c r="D21" s="161">
         <f>D19*Input!D38</f>
-        <v>1.1348099535837379</v>
+        <v>0.94335914774530427</v>
       </c>
       <c r="E21" s="161">
         <f>E19*Input!E38</f>
-        <v>1.6703308821749385</v>
+        <v>1.3347346461021945</v>
       </c>
       <c r="F21" s="161">
         <f>F19*Input!F38</f>
-        <v>1.8375815050498194</v>
+        <v>1.4815554571734397</v>
       </c>
       <c r="G21" s="161">
         <f>G19*Input!G38</f>
-        <v>1.9829342255359665</v>
+        <v>1.614895448319045</v>
       </c>
       <c r="H21" s="161"/>
     </row>
@@ -20712,15 +20712,15 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="B3" s="356" t="s">
+      <c r="B3" s="361" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="361"/>
       <c r="I3" s="198"/>
       <c r="J3" s="198"/>
       <c r="K3" s="198"/>
@@ -20774,19 +20774,19 @@
       </c>
       <c r="D6" s="117">
         <f>PL!D13</f>
-        <v>2.8975490319999953</v>
+        <v>2.4107978999999986</v>
       </c>
       <c r="E6" s="117">
         <f>PL!E13</f>
-        <v>3.6780169927200017</v>
+        <v>3.0923369819999991</v>
       </c>
       <c r="F6" s="117">
         <f>PL!F13</f>
-        <v>4.0474580612760054</v>
+        <v>3.4324940500200043</v>
       </c>
       <c r="G6" s="117">
         <f>PL!G13</f>
-        <v>4.3736015180929719</v>
+        <v>3.7414185145217989</v>
       </c>
       <c r="H6" s="200"/>
       <c r="I6" s="200"/>
@@ -20800,19 +20800,19 @@
       </c>
       <c r="D7" s="117">
         <f>-D6*Input!D19</f>
-        <v>-0.78233823863999874</v>
+        <v>-0.65091543299999965</v>
       </c>
       <c r="E7" s="117">
         <f>-E6*Input!E19</f>
-        <v>-0.99306458803440056</v>
+        <v>-0.83493098513999975</v>
       </c>
       <c r="F7" s="117">
         <f>-F6*Input!F19</f>
-        <v>-1.0928136765445216</v>
+        <v>-0.92677339350540122</v>
       </c>
       <c r="G7" s="117">
         <f>-G6*Input!G19</f>
-        <v>-1.1808724098851024</v>
+        <v>-1.0101829989208857</v>
       </c>
       <c r="H7" s="200"/>
       <c r="I7" s="200"/>
@@ -20826,19 +20826,19 @@
       </c>
       <c r="D8" s="117">
         <f t="shared" ref="D8" si="0">SUM(D6:D7)</f>
-        <v>2.1152107933599966</v>
+        <v>1.7598824669999988</v>
       </c>
       <c r="E8" s="117">
         <f t="shared" ref="E8:G8" si="1">SUM(E6:E7)</f>
-        <v>2.684952404685601</v>
+        <v>2.2574059968599993</v>
       </c>
       <c r="F8" s="117">
         <f t="shared" si="1"/>
-        <v>2.9546443847314841</v>
+        <v>2.5057206565146029</v>
       </c>
       <c r="G8" s="117">
         <f t="shared" si="1"/>
-        <v>3.1927291082078693</v>
+        <v>2.7312355156009129</v>
       </c>
       <c r="H8" s="200"/>
       <c r="I8" s="200"/>
@@ -20878,19 +20878,19 @@
       </c>
       <c r="D10" s="117" cm="1">
         <f t="array" ref="D10">_xlfn.IFS(OPT=0,Calcul!D24, OPT=1,Calcul!D24+Calcul!D65, OPT=2, Calcul!D24+Calcul!D98,OPT=3,Calcul!D24)</f>
-        <v>-1.7117040725342423</v>
+        <v>-1.4445841686643792</v>
       </c>
       <c r="E10" s="117" cm="1">
         <f t="array" ref="E10">_xlfn.IFS(OPT=0,Calcul!E24, OPT=1,Calcul!E24+Calcul!E65, OPT=2, Calcul!E24+Calcul!E98,OPT=3,Calcul!E24)</f>
-        <v>-1.2087195355674658</v>
+        <v>-1.1219950269092465</v>
       </c>
       <c r="F10" s="117" cm="1">
         <f t="array" ref="F10">_xlfn.IFS(OPT=0,Calcul!F24, OPT=1,Calcul!F24+Calcul!F65, OPT=2, Calcul!F24+Calcul!F98,OPT=3,Calcul!F24)</f>
-        <v>-1.3354734321395032</v>
+        <v>-1.2296162115130986</v>
       </c>
       <c r="G10" s="117" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(OPT=0,Calcul!G24, OPT=1,Calcul!G24+Calcul!G65, OPT=2, Calcul!G24+Calcul!G98,OPT=3,Calcul!G24)</f>
-        <v>-1.1789591323661326</v>
+        <v>-1.1167150866378073</v>
       </c>
       <c r="H10" s="200"/>
       <c r="I10" s="200"/>
@@ -20904,19 +20904,19 @@
       </c>
       <c r="D11" s="117" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(OPT=0,Calcul!D16, OPT=1,Calcul!D16,OPT=2,Calcul!D16+Calcul!D89,OPT=3,Calcul!D16)</f>
-        <v>-4.4322789044973956E-2</v>
+        <v>-5.7440173044973952E-2</v>
       </c>
       <c r="E11" s="117" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(OPT=0,Calcul!E16, OPT=1,Calcul!E16,OPT=2,Calcul!E16+Calcul!E89,OPT=3,Calcul!E16)</f>
-        <v>-5.6292679455846539E-2</v>
+        <v>-5.155672249584653E-2</v>
       </c>
       <c r="F11" s="117" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(OPT=0,Calcul!F16, OPT=1,Calcul!F16,OPT=2,Calcul!F16+Calcul!F89,OPT=3,Calcul!F16)</f>
-        <v>-5.3479587157490321E-2</v>
+        <v>-4.9296158509490318E-2</v>
       </c>
       <c r="G11" s="117" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(OPT=0,Calcul!G16, OPT=1,Calcul!G16,OPT=2,Calcul!G16+Calcul!G89,OPT=3,Calcul!G16)</f>
-        <v>-4.7229730909552001E-2</v>
+        <v>-4.4769874864527992E-2</v>
       </c>
       <c r="H11" s="200"/>
       <c r="I11" s="200"/>
@@ -20930,19 +20930,19 @@
       </c>
       <c r="D12" s="133" cm="1">
         <f t="array" ref="D12">_xlfn.IFS(OPT=0,Calcul!D17,OPT=1,Calcul!D17, OPT=2,Calcul!D17+Calcul!D90,OPT=3,Calcul!D17)</f>
-        <v>7.4551357166878801E-2</v>
+        <v>7.0011238366878781E-2</v>
       </c>
       <c r="E12" s="133" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(OPT=0,Calcul!E17,OPT=1,Calcul!E17, OPT=2,Calcul!E17+Calcul!E90,OPT=3,Calcul!E17)</f>
-        <v>7.6850368115694193E-2</v>
+        <v>7.029896098769417E-2</v>
       </c>
       <c r="F12" s="133" cm="1">
         <f t="array" ref="F12">_xlfn.IFS(OPT=0,Calcul!F17,OPT=1,Calcul!F17, OPT=2,Calcul!F17+Calcul!F90,OPT=3,Calcul!F17)</f>
-        <v>7.3003698225403132E-2</v>
+        <v>6.7216621929003129E-2</v>
       </c>
       <c r="G12" s="133" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(OPT=0,Calcul!G17,OPT=1,Calcul!G17, OPT=2,Calcul!G17+Calcul!G90,OPT=3,Calcul!G17)</f>
-        <v>6.4447714777805115E-2</v>
+        <v>6.1044913915521914E-2</v>
       </c>
       <c r="H12" s="200"/>
       <c r="I12" s="200"/>
@@ -20956,19 +20956,19 @@
       </c>
       <c r="D13" s="117">
         <f t="shared" ref="D13" si="2">SUM(D8:D12)</f>
-        <v>0.43373528894765923</v>
+        <v>0.32786936365752445</v>
       </c>
       <c r="E13" s="117">
         <f t="shared" ref="E13:G13" si="3">SUM(E8:E12)</f>
-        <v>1.496790557777983</v>
+        <v>1.1541532084426005</v>
       </c>
       <c r="F13" s="117">
         <f t="shared" si="3"/>
-        <v>1.6386950636598938</v>
+        <v>1.2940249084210169</v>
       </c>
       <c r="G13" s="117">
         <f t="shared" si="3"/>
-        <v>2.0309879597099898</v>
+        <v>1.6307954680140995</v>
       </c>
       <c r="H13" s="200"/>
       <c r="I13" s="200"/>
@@ -20993,19 +20993,19 @@
       </c>
       <c r="D15" s="133" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(OPT=0,Calcul!D29, OPT=1,Calcul!D29+Calcul!D71, OPT=2,Calcul!D29+Calcul!D104,OPT=3,Calcul!D29)</f>
-        <v>-0.70321180999999822</v>
+        <v>-0.49563499999999827</v>
       </c>
       <c r="E15" s="133" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(OPT=0,Calcul!E29, OPT=1,Calcul!E29+Calcul!E71, OPT=2,Calcul!E29+Calcul!E104,OPT=3,Calcul!E29)</f>
-        <v>-1.3656326585999976</v>
+        <v>-1.2492070499999972</v>
       </c>
       <c r="F15" s="133" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(OPT=0,Calcul!F29, OPT=1,Calcul!F29+Calcul!F71, OPT=2,Calcul!F29+Calcul!F104,OPT=3,Calcul!F29)</f>
-        <v>-1.2972767464300028</v>
+        <v>-1.1944341255000026</v>
       </c>
       <c r="G15" s="133" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(OPT=0,Calcul!G29, OPT=1,Calcul!G29+Calcul!G71, OPT=2,Calcul!G29+Calcul!G104,OPT=3,Calcul!G29)</f>
-        <v>-1.1452348169018411</v>
+        <v>-1.0847633557950012</v>
       </c>
       <c r="H15" s="200"/>
       <c r="I15" s="200"/>
@@ -21019,19 +21019,19 @@
       </c>
       <c r="D16" s="117">
         <f t="shared" ref="D16" si="4">D15</f>
-        <v>-0.70321180999999822</v>
+        <v>-0.49563499999999827</v>
       </c>
       <c r="E16" s="117">
         <f t="shared" ref="E16:G16" si="5">E15</f>
-        <v>-1.3656326585999976</v>
+        <v>-1.2492070499999972</v>
       </c>
       <c r="F16" s="117">
         <f t="shared" si="5"/>
-        <v>-1.2972767464300028</v>
+        <v>-1.1944341255000026</v>
       </c>
       <c r="G16" s="117">
         <f t="shared" si="5"/>
-        <v>-1.1452348169018411</v>
+        <v>-1.0847633557950012</v>
       </c>
       <c r="H16" s="200"/>
       <c r="I16" s="200"/>
@@ -21109,19 +21109,19 @@
       </c>
       <c r="D20" s="117" cm="1">
         <f t="array" ref="D20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!D35, OPT=2,Calcul!D35+Calcul!D110)</f>
-        <v>0.73967673281178847</v>
+        <v>0.71758702054794377</v>
       </c>
       <c r="E20" s="117" cm="1">
         <f t="array" ref="E20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!E35, OPT=2,Calcul!E35+Calcul!E110)</f>
-        <v>0.72516469540706363</v>
+        <v>0.70489731267123279</v>
       </c>
       <c r="F20" s="117" cm="1">
         <f t="array" ref="F20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!F35, OPT=2,Calcul!F35+Calcul!F110)</f>
-        <v>0.69189313140409303</v>
+        <v>0.67399027665410927</v>
       </c>
       <c r="G20" s="117" cm="1">
         <f t="array" ref="G20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!G35, OPT=2,Calcul!G35+Calcul!G110)</f>
-        <v>0.62263259348158739</v>
+        <v>0.61210571488859689</v>
       </c>
       <c r="H20" s="200"/>
       <c r="I20" s="200"/>
@@ -21135,19 +21135,19 @@
       </c>
       <c r="D21" s="117">
         <f>PL!D15</f>
-        <v>-1.3430148490085734</v>
+        <v>-1.1185250948694447</v>
       </c>
       <c r="E21" s="117">
         <f>PL!E15</f>
-        <v>-1.3898924965899488</v>
+        <v>-1.2639333572024722</v>
       </c>
       <c r="F21" s="117">
         <f>PL!F15</f>
-        <v>-1.530223122851595</v>
+        <v>-1.4029660264947446</v>
       </c>
       <c r="G21" s="117">
         <f>PL!G15</f>
-        <v>-1.6572532639341138</v>
+        <v>-1.5292329688792716</v>
       </c>
       <c r="H21" s="200"/>
       <c r="I21" s="200"/>
@@ -21161,19 +21161,19 @@
       </c>
       <c r="D22" s="117">
         <f>-D21*Input!D19</f>
-        <v>0.36261400923231485</v>
+        <v>0.30200177561475011</v>
       </c>
       <c r="E22" s="117">
         <f>-E21*Input!E19</f>
-        <v>0.37527097407928622</v>
+        <v>0.34126200644466753</v>
       </c>
       <c r="F22" s="117">
         <f>-F21*Input!F19</f>
-        <v>0.41316024316993066</v>
+        <v>0.37880082715358104</v>
       </c>
       <c r="G22" s="117">
         <f>-G21*Input!G19</f>
-        <v>0.44745838126221077</v>
+        <v>0.41289290159740338</v>
       </c>
       <c r="H22" s="200"/>
       <c r="I22" s="200"/>
@@ -21201,7 +21201,7 @@
       </c>
       <c r="D24" s="133" cm="1">
         <f t="array" ref="D24">_xlfn.IFS(OPT=3,Projects!C17, OPT&lt;&gt;3,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="133" cm="1">
         <f t="array" ref="E24">_xlfn.IFS(OPT=3,Projects!D17, OPT&lt;&gt;3,0)</f>
@@ -21226,19 +21226,19 @@
       </c>
       <c r="D25" s="117">
         <f>SUM(D18:D24)</f>
-        <v>0.13445353575569235</v>
+        <v>4.2762413440134113</v>
       </c>
       <c r="E25" s="117">
         <f t="shared" ref="E25:G25" si="6">SUM(E18:E24)</f>
-        <v>0.83903126645001802</v>
+        <v>0.91071405546704509</v>
       </c>
       <c r="F25" s="117">
         <f t="shared" si="6"/>
-        <v>0.65383848271254852</v>
+        <v>0.72883330830306559</v>
       </c>
       <c r="G25" s="117">
         <f t="shared" si="6"/>
-        <v>0.39277336786343459</v>
+        <v>0.47570130466047894</v>
       </c>
       <c r="H25" s="117"/>
       <c r="I25" s="200"/>
@@ -21264,19 +21264,19 @@
       <c r="C27" s="60"/>
       <c r="D27" s="117">
         <f>SUM(D13,D16,D25)</f>
-        <v>-0.13502298529664664</v>
+        <v>4.1084757076709373</v>
       </c>
       <c r="E27" s="117">
         <f t="shared" ref="E27:G27" si="7">SUM(E13,E16,E25)</f>
-        <v>0.97018916562800339</v>
+        <v>0.81566021390964838</v>
       </c>
       <c r="F27" s="117">
         <f t="shared" si="7"/>
-        <v>0.99525679994243954</v>
+        <v>0.82842409122407989</v>
       </c>
       <c r="G27" s="117">
         <f t="shared" si="7"/>
-        <v>1.2785265106715833</v>
+        <v>1.0217334168795773</v>
       </c>
       <c r="H27" s="200"/>
       <c r="I27" s="200"/>
@@ -21289,19 +21289,19 @@
       </c>
       <c r="D28" s="205" cm="1">
         <f t="array" ref="D28">_xlfn.IFS(OPT=2,SUM(Calcul!C97,BS!C8), OPT&lt;&gt;2,BS!C8)</f>
-        <v>1.6712500000000001</v>
+        <v>1.4357000000000002</v>
       </c>
       <c r="E28" s="205" cm="1">
         <f t="array" ref="E28">_xlfn.IFS(OPT=2,BS!D8, OPT&lt;&gt;2,BS!D8)</f>
-        <v>1.5363320147033512</v>
+        <v>5.5442807076709339</v>
       </c>
       <c r="F28" s="205" cm="1">
         <f t="array" ref="F28">_xlfn.IFS(OPT=2,BS!E8, OPT&lt;&gt;2,BS!E8)</f>
-        <v>2.5065211803313474</v>
+        <v>6.3599409215805842</v>
       </c>
       <c r="G28" s="205" cm="1">
         <f t="array" ref="G28">_xlfn.IFS(OPT=2,BS!F8, OPT&lt;&gt;2,BS!F8)</f>
-        <v>3.5017779802737969</v>
+        <v>7.1883650128046632</v>
       </c>
       <c r="H28" s="200"/>
       <c r="I28" s="200"/>
@@ -21314,19 +21314,19 @@
       </c>
       <c r="D29" s="117">
         <f>SUM(D27:D28)</f>
-        <v>1.5362270147033534</v>
+        <v>5.5441757076709379</v>
       </c>
       <c r="E29" s="117">
         <f>SUM(E27:E28)</f>
-        <v>2.5065211803313545</v>
+        <v>6.3599409215805824</v>
       </c>
       <c r="F29" s="117">
         <f>SUM(F27:F28)</f>
-        <v>3.5017779802737872</v>
+        <v>7.1883650128046641</v>
       </c>
       <c r="G29" s="117">
         <f>SUM(G27:G28)</f>
-        <v>4.7803044909453805</v>
+        <v>8.2100984296842405</v>
       </c>
       <c r="H29" s="200"/>
       <c r="I29" s="114"/>
@@ -21346,15 +21346,15 @@
       <c r="C31" s="117"/>
       <c r="D31" s="117">
         <f>BS!D8-CF!D29</f>
-        <v>1.049999999978013E-4</v>
+        <v>1.0499999999602494E-4</v>
       </c>
       <c r="E31" s="117">
         <f>BS!E8-CF!E29</f>
-        <v>-7.1054273576010019E-15</v>
+        <v>0</v>
       </c>
       <c r="F31" s="117">
         <f>BS!F8-CF!F29</f>
-        <v>9.7699626167013776E-15</v>
+        <v>0</v>
       </c>
       <c r="G31" s="117">
         <f>BS!G8-CF!G29</f>
@@ -21437,7 +21437,7 @@
   <dimension ref="B2:Q56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21511,19 +21511,19 @@
       </c>
       <c r="D8" s="176" cm="1">
         <f t="array" ref="D8">_xlfn.IFS(OPT&lt;&gt;2,D40-SUM(D9:D11)-D18, OPT=2,D40-SUM(D9:D11)-D18)</f>
-        <v>1.5363320147033512</v>
+        <v>5.5442807076709339</v>
       </c>
       <c r="E8" s="176" cm="1">
         <f t="array" ref="E8">_xlfn.IFS(OPT&lt;&gt;2,E40-SUM(E9:E11)-E18, OPT=2,E40-SUM(E9:E11)-E18)</f>
-        <v>2.5065211803313474</v>
+        <v>6.3599409215805842</v>
       </c>
       <c r="F8" s="176" cm="1">
         <f t="array" ref="F8">_xlfn.IFS(OPT&lt;&gt;2,F40-SUM(F9:F11)-F18, OPT=2,F40-SUM(F9:F11)-F18)</f>
-        <v>3.5017779802737969</v>
+        <v>7.1883650128046632</v>
       </c>
       <c r="G8" s="176" cm="1">
         <f t="array" ref="G8">_xlfn.IFS(OPT&lt;&gt;2,G40-SUM(G9:G11)-G18, OPT=2,G40-SUM(G9:G11)-G18)</f>
-        <v>4.7803044909453796</v>
+        <v>8.2100984296842441</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
@@ -21546,19 +21546,19 @@
       </c>
       <c r="D9" s="60" cm="1">
         <f t="array" ref="D9">_xlfn.IFS(OPT=0,Calcul!D21,OPT=1,Calcul!D21+Calcul!D62,OPT=2,Calcul!D21+Projects!D118,OPT=3,Calcul!D21)</f>
-        <v>8.0457673972602723</v>
+        <v>6.6941815068493131</v>
       </c>
       <c r="E9" s="60" cm="1">
         <f t="array" ref="E9">_xlfn.IFS(OPT=0,Calcul!E21,OPT=1,Calcul!E21+Calcul!E62,OPT=2,Calcul!E21+Projects!E118,OPT=3,Calcul!E21)</f>
-        <v>8.9971061465753408</v>
+        <v>7.5644251027397233</v>
       </c>
       <c r="F9" s="60" cm="1">
         <f t="array" ref="F9">_xlfn.IFS(OPT=0,Calcul!F21,OPT=1,Calcul!F21+Calcul!F62,OPT=2,Calcul!F21+Projects!F118,OPT=3,Calcul!F21)</f>
-        <v>9.9008269600684908</v>
+        <v>8.3965118640410932</v>
       </c>
       <c r="G9" s="60" cm="1">
         <f t="array" ref="G9">_xlfn.IFS(OPT=0,Calcul!G21,OPT=1,Calcul!G21+Calcul!G62,OPT=2,Calcul!G21+Projects!G118,OPT=3,Calcul!G21)</f>
-        <v>10.698633850520958</v>
+        <v>9.1521979318047926</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="56"/>
@@ -21581,19 +21581,19 @@
       </c>
       <c r="D10" s="60" cm="1">
         <f t="array" ref="D10">_xlfn.IFS(OPT=0,Calcul!D23,OPT=1,Calcul!D23+Calcul!D63,OPT=2,Calcul!D23+Projects!D119,OPT=3,Calcul!D23)</f>
-        <v>6.0202454549999995</v>
+        <v>5.0089213124999992</v>
       </c>
       <c r="E10" s="60" cm="1">
         <f t="array" ref="E10">_xlfn.IFS(OPT=0,Calcul!E23,OPT=1,Calcul!E23+Calcul!E63,OPT=2,Calcul!E23+Projects!E119,OPT=3,Calcul!E23)</f>
-        <v>6.4036902998249978</v>
+        <v>5.3839795668749977</v>
       </c>
       <c r="F10" s="60" cm="1">
         <f t="array" ref="F10">_xlfn.IFS(OPT=0,Calcul!F23,OPT=1,Calcul!F23+Calcul!F63,OPT=2,Calcul!F23+Projects!F119,OPT=3,Calcul!F23)</f>
-        <v>7.0469135888287475</v>
+        <v>5.9762173192312478</v>
       </c>
       <c r="G10" s="60" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(OPT=0,Calcul!G23,OPT=1,Calcul!G23+Calcul!G63,OPT=2,Calcul!G23+Projects!G119,OPT=3,Calcul!G23)</f>
-        <v>7.6147526431082913</v>
+        <v>6.5140768779620615</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="56"/>
@@ -21616,19 +21616,19 @@
       </c>
       <c r="D11" s="186" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(OPT=0,Calcul!D14,OPT=1,Calcul!D14,OPT=2,Calcul!D14+Projects!D120,OPT=3,Calcul!D14)</f>
-        <v>0.47552278904497391</v>
+        <v>0.3965901730449739</v>
       </c>
       <c r="E11" s="186" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(OPT=0,Calcul!E14,OPT=1,Calcul!E14,OPT=2,Calcul!E14+Projects!E120,OPT=3,Calcul!E14)</f>
-        <v>0.53181546850082051</v>
+        <v>0.44814689554082043</v>
       </c>
       <c r="F11" s="186" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(OPT=0,Calcul!F14,OPT=1,Calcul!F14,OPT=2,Calcul!F14+Projects!F120,OPT=3,Calcul!F14)</f>
-        <v>0.58529505565831075</v>
+        <v>0.49744305405031075</v>
       </c>
       <c r="G11" s="186" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(OPT=0,Calcul!G14,OPT=1,Calcul!G14,OPT=2,Calcul!G14+Projects!G120,OPT=3,Calcul!G14)</f>
-        <v>0.63252478656786282</v>
+        <v>0.54221292891483874</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="56"/>
@@ -21651,19 +21651,19 @@
       </c>
       <c r="D12" s="60">
         <f>SUM(D8:D11)</f>
-        <v>16.077867656008596</v>
+        <v>17.643973700065221</v>
       </c>
       <c r="E12" s="60">
         <f t="shared" ref="E12:G12" si="0">SUM(E8:E11)</f>
-        <v>18.439133095232506</v>
+        <v>19.756492486736125</v>
       </c>
       <c r="F12" s="60">
         <f t="shared" si="0"/>
-        <v>21.034813584829347</v>
+        <v>22.058537250127316</v>
       </c>
       <c r="G12" s="60">
         <f t="shared" si="0"/>
-        <v>23.726215771142492</v>
+        <v>24.418586168365938</v>
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="56"/>
@@ -21722,19 +21722,19 @@
       </c>
       <c r="D15" s="60" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(OPT=2,Projects!$C$170, OPT&lt;&gt;2,0)</f>
-        <v>1.6215082800000005</v>
+        <v>0</v>
       </c>
       <c r="E15" s="60" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(OPT=2,Projects!$C$170, OPT&lt;&gt;2,0)</f>
-        <v>1.6215082800000005</v>
+        <v>0</v>
       </c>
       <c r="F15" s="60" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(OPT=2,Projects!$C$170, OPT&lt;&gt;2,0)</f>
-        <v>1.6215082800000005</v>
+        <v>0</v>
       </c>
       <c r="G15" s="60" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(OPT=2,Projects!$C$170, OPT&lt;&gt;2,0)</f>
-        <v>1.6215082800000005</v>
+        <v>0</v>
       </c>
       <c r="H15" s="60"/>
       <c r="I15" s="56"/>
@@ -21757,19 +21757,19 @@
       </c>
       <c r="D16" s="60" cm="1">
         <f t="array" ref="D16">_xlfn.IFS(OPT=0,Calcul!D27,OPT=1,Calcul!D27+Calcul!D70,OPT=2,Calcul!D27+Projects!D124,OPT=3,Calcul!D27)</f>
-        <v>9.7890169999999976</v>
+        <v>8.1445874999999983</v>
       </c>
       <c r="E16" s="60" cm="1">
         <f t="array" ref="E16">_xlfn.IFS(OPT=0,Calcul!E27,OPT=1,Calcul!E27+Calcul!E70,OPT=2,Calcul!E27+Projects!E124,OPT=3,Calcul!E27)</f>
-        <v>10.946479144999998</v>
+        <v>9.2033838749999966</v>
       </c>
       <c r="F16" s="60" cm="1">
         <f t="array" ref="F16">_xlfn.IFS(OPT=0,Calcul!F27,OPT=1,Calcul!F27+Calcul!F70,OPT=2,Calcul!F27+Projects!F124,OPT=3,Calcul!F27)</f>
-        <v>12.046006134749998</v>
+        <v>10.215756101249998</v>
       </c>
       <c r="G16" s="60" cm="1">
         <f t="array" ref="G16">_xlfn.IFS(OPT=0,Calcul!G27,OPT=1,Calcul!G27+Calcul!G70,OPT=2,Calcul!G27+Projects!G124,OPT=3,Calcul!G27)</f>
-        <v>13.016671184800499</v>
+        <v>11.135174150362499</v>
       </c>
       <c r="H16" s="60"/>
       <c r="I16" s="56"/>
@@ -21792,19 +21792,19 @@
       </c>
       <c r="D17" s="186" cm="1">
         <f t="array" ref="D17">_xlfn.IFS(OPT=0,Calcul!D28,OPT=1,Calcul!D28,OPT=2,Calcul!D28+Projects!D125,OPT=3,Calcul!D28)</f>
-        <v>1.7606948099999997</v>
+        <v>1.4646974999999998</v>
       </c>
       <c r="E17" s="186" cm="1">
         <f t="array" ref="E17">_xlfn.IFS(OPT=0,Calcul!E28,OPT=1,Calcul!E28,OPT=2,Calcul!E28+Projects!E125,OPT=3,Calcul!E28)</f>
-        <v>1.9688653235999998</v>
+        <v>1.6551081749999996</v>
       </c>
       <c r="F17" s="186" cm="1">
         <f t="array" ref="F17">_xlfn.IFS(OPT=0,Calcul!F28,OPT=1,Calcul!F28,OPT=2,Calcul!F28+Projects!F125,OPT=3,Calcul!F28)</f>
-        <v>2.1666150802799997</v>
+        <v>1.8371700742499997</v>
       </c>
       <c r="G17" s="186" cm="1">
         <f t="array" ref="G17">_xlfn.IFS(OPT=0,Calcul!G28,OPT=1,Calcul!G28,OPT=2,Calcul!G28+Projects!G125,OPT=3,Calcul!G28)</f>
-        <v>2.3411848471313403</v>
+        <v>2.0025153809325</v>
       </c>
       <c r="H17" s="60"/>
       <c r="I17" s="56"/>
@@ -21827,19 +21827,19 @@
       </c>
       <c r="D18" s="176">
         <f>SUM(D15:D17)</f>
-        <v>13.171220089999998</v>
+        <v>9.6092849999999981</v>
       </c>
       <c r="E18" s="176">
         <f t="shared" ref="E18:G18" si="1">SUM(E15:E17)</f>
-        <v>14.536852748599998</v>
+        <v>10.858492049999995</v>
       </c>
       <c r="F18" s="176">
         <f t="shared" si="1"/>
-        <v>15.834129495029998</v>
+        <v>12.052926175499998</v>
       </c>
       <c r="G18" s="176">
         <f t="shared" si="1"/>
-        <v>16.979364311931839</v>
+        <v>13.137689531294999</v>
       </c>
       <c r="H18" s="60"/>
       <c r="I18" s="56"/>
@@ -21899,19 +21899,19 @@
       </c>
       <c r="D21" s="176">
         <f>SUM(D12,D18)</f>
-        <v>29.249087746008595</v>
+        <v>27.253258700065217</v>
       </c>
       <c r="E21" s="176">
         <f t="shared" ref="E21:G21" si="2">SUM(E12,E18)</f>
-        <v>32.975985843832504</v>
+        <v>30.61498453673612</v>
       </c>
       <c r="F21" s="176">
         <f t="shared" si="2"/>
-        <v>36.868943079859349</v>
+        <v>34.111463425627313</v>
       </c>
       <c r="G21" s="176">
         <f t="shared" si="2"/>
-        <v>40.705580083074331</v>
+        <v>37.556275699660937</v>
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="56"/>
@@ -21949,19 +21949,19 @@
       <c r="C23" s="60"/>
       <c r="D23" s="210">
         <f>(D21-C21)/C21</f>
-        <v>0.40169107902470857</v>
+        <v>0.30604584751354846</v>
       </c>
       <c r="E23" s="210">
         <f t="shared" ref="E23:G23" si="3">(E21-D21)/D21</f>
-        <v>0.12741929355839451</v>
+        <v>0.1233513347401226</v>
       </c>
       <c r="F23" s="210">
         <f t="shared" si="3"/>
-        <v>0.11805430941361665</v>
+        <v>0.11420808933271324</v>
       </c>
       <c r="G23" s="210">
         <f t="shared" si="3"/>
-        <v>0.10406148597492201</v>
+        <v>0.10098693893753029</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="56"/>
@@ -22040,19 +22040,19 @@
       </c>
       <c r="D27" s="60" cm="1">
         <f t="array" ref="D27">_xlfn.IFS(OPT=0,Calcul!D34, OPT=1,Calcul!D34, OPT=2,Calcul!D34+Projects!D135,OPT=3,Calcul!D34)</f>
-        <v>5.7600767328117879</v>
+        <v>5.4222870205479436</v>
       </c>
       <c r="E27" s="60" cm="1">
         <f t="array" ref="E27">_xlfn.IFS(OPT=0,Calcul!E34, OPT=1,Calcul!E34, OPT=2,Calcul!E34+Projects!E135,OPT=3,Calcul!E34)</f>
-        <v>6.4852414282188517</v>
+        <v>6.1271843332191764</v>
       </c>
       <c r="F27" s="60" cm="1">
         <f t="array" ref="F27">_xlfn.IFS(OPT=0,Calcul!F34, OPT=1,Calcul!F34, OPT=2,Calcul!F34+Projects!F135,OPT=3,Calcul!F34)</f>
-        <v>7.177134559622945</v>
+        <v>6.8011746098732857</v>
       </c>
       <c r="G27" s="60" cm="1">
         <f t="array" ref="G27">_xlfn.IFS(OPT=0,Calcul!G34, OPT=1,Calcul!G34, OPT=2,Calcul!G34+Projects!G135,OPT=3,Calcul!G34)</f>
-        <v>7.7997671531045327</v>
+        <v>7.4132803247618826</v>
       </c>
       <c r="H27" s="60"/>
       <c r="I27" s="56"/>
@@ -22075,19 +22075,19 @@
       </c>
       <c r="D28" s="60" cm="1">
         <f t="array" ref="D28">_xlfn.IFS(OPT=0, Calcul!D22, OPT=1, Calcul!D22+Calcul!D64, OPT=2, Calcul!D22+Projects!D136,OPT=3, Calcul!D22)</f>
-        <v>1.9792587797260273</v>
+        <v>1.6467686506849313</v>
       </c>
       <c r="E28" s="60" cm="1">
         <f t="array" ref="E28">_xlfn.IFS(OPT=0, Calcul!E22, OPT=1, Calcul!E22+Calcul!E64, OPT=2, Calcul!E22+Projects!E136,OPT=3, Calcul!E22)</f>
-        <v>2.1053228382986293</v>
+        <v>1.7700754740410951</v>
       </c>
       <c r="F28" s="60" cm="1">
         <f t="array" ref="F28">_xlfn.IFS(OPT=0, Calcul!F22, OPT=1, Calcul!F22+Calcul!F64, OPT=2, Calcul!F22+Projects!F136,OPT=3, Calcul!F22)</f>
-        <v>2.3167935086560263</v>
+        <v>1.9647837761856155</v>
       </c>
       <c r="G28" s="60" cm="1">
         <f t="array" ref="G28">_xlfn.IFS(OPT=0, Calcul!G22, OPT=1, Calcul!G22+Calcul!G64, OPT=2, Calcul!G22+Projects!G136,OPT=3, Calcul!G22)</f>
-        <v>2.5034803210219043</v>
+        <v>2.1416143160423218</v>
       </c>
       <c r="H28" s="60"/>
       <c r="I28" s="56"/>
@@ -22145,19 +22145,19 @@
       </c>
       <c r="D30" s="212" cm="1">
         <f t="array" ref="D30">_xlfn.IFS(OPT=0, Calcul!D15, OPT=1, Calcul!D15, OPT=2,Calcul!D15+Projects!D138,OPT=3, Calcul!D15)</f>
-        <v>0.64995135716687868</v>
+        <v>0.54076123836687873</v>
       </c>
       <c r="E30" s="212" cm="1">
         <f t="array" ref="E30">_xlfn.IFS(OPT=0, Calcul!E15, OPT=1, Calcul!E15, OPT=2,Calcul!E15+Projects!E138,OPT=3, Calcul!E15)</f>
-        <v>0.72680172528257292</v>
+        <v>0.6110601993545729</v>
       </c>
       <c r="F30" s="212" cm="1">
         <f t="array" ref="F30">_xlfn.IFS(OPT=0, Calcul!F15, OPT=1, Calcul!F15, OPT=2,Calcul!F15+Projects!F138,OPT=3, Calcul!F15)</f>
-        <v>0.79980542350797612</v>
+        <v>0.67827682128357603</v>
       </c>
       <c r="G30" s="212" cm="1">
         <f t="array" ref="G30">_xlfn.IFS(OPT=0, Calcul!G15, OPT=1, Calcul!G15, OPT=2,Calcul!G15+Projects!G138,OPT=3, Calcul!G15)</f>
-        <v>0.86425313828578121</v>
+        <v>0.73932173519909794</v>
       </c>
       <c r="H30" s="60"/>
       <c r="I30" s="56"/>
@@ -22180,19 +22180,19 @@
       </c>
       <c r="D31" s="60">
         <f>SUM(D27:D30)</f>
-        <v>8.93437159516135</v>
+        <v>8.1549016350564081</v>
       </c>
       <c r="E31" s="176">
         <f t="shared" ref="E31:F31" si="4">SUM(E27:E30)</f>
-        <v>9.9333117315660733</v>
+        <v>9.1242657463808623</v>
       </c>
       <c r="F31" s="176">
         <f t="shared" si="4"/>
-        <v>10.977433262927232</v>
+        <v>10.127934978482761</v>
       </c>
       <c r="G31" s="176">
         <f>SUM(G27:G30)</f>
-        <v>11.912733362955125</v>
+        <v>11.039449126546209</v>
       </c>
       <c r="H31" s="60"/>
       <c r="I31" s="56"/>
@@ -22268,19 +22268,19 @@
       </c>
       <c r="D34" s="60">
         <f>SUM(D31:D33)</f>
-        <v>17.069964512424857</v>
+        <v>16.290494552319913</v>
       </c>
       <c r="E34" s="176">
         <f t="shared" ref="E34:F34" si="5">SUM(E31:E33)</f>
-        <v>19.126531728073832</v>
+        <v>18.317485742888621</v>
       </c>
       <c r="F34" s="176">
         <f t="shared" si="5"/>
-        <v>21.181907459050848</v>
+        <v>20.332409174606376</v>
       </c>
       <c r="G34" s="176">
         <f>SUM(G31:G33)</f>
-        <v>23.035610236729866</v>
+        <v>22.162326000320952</v>
       </c>
       <c r="H34" s="60"/>
       <c r="I34" s="56"/>
@@ -22321,19 +22321,19 @@
       </c>
       <c r="D36" s="203" cm="1">
         <f t="array" ref="D36">_xlfn.IFS(OPT=0,C36, OPT=1, C36,OPT=2, $C$36+Projects!$C$168,OPT=3,C36+Projects!C17)</f>
-        <v>7.43336328</v>
+        <v>6.408455</v>
       </c>
       <c r="E36" s="203" cm="1">
         <f t="array" ref="E36">_xlfn.IFS(OPT=0,D36, OPT=1, D36,OPT=2, $C$36+Projects!$C$168,OPT=3,D36+Projects!D17)</f>
-        <v>7.43336328</v>
+        <v>6.408455</v>
       </c>
       <c r="F36" s="203" cm="1">
         <f t="array" ref="F36">_xlfn.IFS(OPT=0,E36, OPT=1, E36,OPT=2, $C$36+Projects!$C$168,OPT=3,E36+Projects!E17)</f>
-        <v>7.43336328</v>
+        <v>6.408455</v>
       </c>
       <c r="G36" s="203" cm="1">
         <f t="array" ref="G36">_xlfn.IFS(OPT=0,F36, OPT=1, F36,OPT=2, $C$36+Projects!$C$168,OPT=3,F36+Projects!F17)</f>
-        <v>7.43336328</v>
+        <v>6.408455</v>
       </c>
       <c r="H36" s="60"/>
       <c r="I36" s="56"/>
@@ -22356,19 +22356,19 @@
       </c>
       <c r="D37" s="212" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(OPT=0,C37+PL!D21, OPT=1,C37+PL!D21, OPT=2,C37+PL!D21,OPT=3,C37+PL!D21)</f>
-        <v>4.7457599535837378</v>
+        <v>4.5543091477453039</v>
       </c>
       <c r="E37" s="212" cm="1">
         <f t="array" ref="E37">_xlfn.IFS(OPT=0,D37+PL!E21, OPT=1,D37+PL!E21, OPT=2,D37+PL!E21,OPT=3,D37+PL!E21)</f>
-        <v>6.4160908357586761</v>
+        <v>5.8890437938474989</v>
       </c>
       <c r="F37" s="212" cm="1">
         <f t="array" ref="F37">_xlfn.IFS(OPT=0,E37+PL!F21, OPT=1,E37+PL!F21, OPT=2,E37+PL!F21,OPT=3,E37+PL!F21)</f>
-        <v>8.253672340808496</v>
+        <v>7.3705992510209386</v>
       </c>
       <c r="G37" s="212" cm="1">
         <f t="array" ref="G37">_xlfn.IFS(OPT=0,F37+PL!G21, OPT=1,F37+PL!G21, OPT=2,F37+PL!G21,OPT=3,F37+PL!G21)</f>
-        <v>10.236606566344463</v>
+        <v>8.9854946993399842</v>
       </c>
       <c r="H37" s="203"/>
       <c r="I37" s="56"/>
@@ -22391,19 +22391,19 @@
       </c>
       <c r="D38" s="203">
         <f>SUM(D36:D37)</f>
-        <v>12.179123233583738</v>
+        <v>10.962764147745304</v>
       </c>
       <c r="E38" s="176">
         <f t="shared" ref="E38:F38" si="6">SUM(E36:E37)</f>
-        <v>13.849454115758675</v>
+        <v>12.297498793847499</v>
       </c>
       <c r="F38" s="176">
         <f t="shared" si="6"/>
-        <v>15.687035620808496</v>
+        <v>13.779054251020938</v>
       </c>
       <c r="G38" s="176">
         <f t="shared" ref="G38" si="7">SUM(G36:G37)</f>
-        <v>17.669969846344465</v>
+        <v>15.393949699339984</v>
       </c>
       <c r="H38" s="60"/>
       <c r="I38" s="56"/>
@@ -22444,19 +22444,19 @@
       </c>
       <c r="D40" s="176">
         <f>SUM(D38+D34)</f>
-        <v>29.249087746008595</v>
+        <v>27.253258700065217</v>
       </c>
       <c r="E40" s="176">
         <f t="shared" ref="E40:G40" si="8">SUM(E38+E34)</f>
-        <v>32.975985843832504</v>
+        <v>30.61498453673612</v>
       </c>
       <c r="F40" s="176">
         <f t="shared" si="8"/>
-        <v>36.868943079859342</v>
+        <v>34.111463425627313</v>
       </c>
       <c r="G40" s="176">
         <f t="shared" si="8"/>
-        <v>40.705580083074331</v>
+        <v>37.556275699660937</v>
       </c>
       <c r="H40" s="60"/>
       <c r="I40" s="56"/>
@@ -22643,7 +22643,7 @@
         <v>276</v>
       </c>
       <c r="C4" s="331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="332" t="s">
         <v>277</v>
@@ -22674,12 +22674,12 @@
       </c>
       <c r="I5" s="340">
         <f>D26</f>
-        <v>0.49371640240309961</v>
+        <v>0.51747810485629586</v>
       </c>
       <c r="J5" s="341" t="s">
         <v>280</v>
       </c>
-      <c r="K5" s="357" t="s">
+      <c r="K5" s="362" t="s">
         <v>281</v>
       </c>
     </row>
@@ -22699,12 +22699,12 @@
       </c>
       <c r="I6" s="344">
         <f>D27</f>
-        <v>2.4015758101005744</v>
+        <v>2.485984221932783</v>
       </c>
       <c r="J6" s="345" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="357"/>
+      <c r="K6" s="362"/>
     </row>
     <row r="7" spans="2:11" s="329" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="335" t="s">
@@ -22762,19 +22762,19 @@
       </c>
       <c r="D12" s="314">
         <f>SUM(CF!D13,CF!D16)</f>
-        <v>-0.26947652105233899</v>
+        <v>-0.16776563634247382</v>
       </c>
       <c r="E12" s="314">
         <f>SUM(CF!E13,CF!E16)</f>
-        <v>0.13115789917798537</v>
+        <v>-9.5053841557396712E-2</v>
       </c>
       <c r="F12" s="314">
         <f>SUM(CF!F13,CF!F16)</f>
-        <v>0.34141831722989102</v>
+        <v>9.9590782921014309E-2</v>
       </c>
       <c r="G12" s="314">
         <f>SUM(CF!G13,CF!G16)</f>
-        <v>0.88575314280814865</v>
+        <v>0.54603211221909831</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -22841,19 +22841,19 @@
       </c>
       <c r="D16" s="314">
         <f>D15*D12</f>
-        <v>-0.25935045493257403</v>
+        <v>-0.16146154009099228</v>
       </c>
       <c r="E16" s="314">
         <f t="shared" ref="E16:G16" si="2">E15*E12</f>
-        <v>0.11692104768522153</v>
+        <v>-8.4735992350061254E-2</v>
       </c>
       <c r="F16" s="314">
         <f t="shared" si="2"/>
-        <v>0.28191437949902026</v>
+        <v>8.2233648149857758E-2</v>
       </c>
       <c r="G16" s="314">
         <f t="shared" si="2"/>
-        <v>0.67744692709917842</v>
+        <v>0.41761949085223038</v>
       </c>
       <c r="H16" s="316"/>
       <c r="I16" s="316"/>
@@ -22865,7 +22865,7 @@
       </c>
       <c r="C17" s="318">
         <f>SUM(D16:G16)</f>
-        <v>0.8169318993508462</v>
+        <v>0.25365560656103459</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -22905,19 +22905,19 @@
       </c>
       <c r="D21" s="319">
         <f>BS!D38/BS!D21</f>
-        <v>0.41639326803434173</v>
+        <v>0.40225516766253977</v>
       </c>
       <c r="E21" s="319">
         <f>BS!E38/BS!E21</f>
-        <v>0.41998605231536806</v>
+        <v>0.4016823454243868</v>
       </c>
       <c r="F21" s="319">
         <f>BS!F38/BS!F21</f>
-        <v>0.4254810230613299</v>
+        <v>0.40394204373738446</v>
       </c>
       <c r="G21" s="319">
         <f>BS!G38/BS!G21</f>
-        <v>0.43409207804636502</v>
+        <v>0.40989020909437418</v>
       </c>
       <c r="H21" s="319"/>
       <c r="I21" s="319"/>
@@ -22932,19 +22932,19 @@
       </c>
       <c r="D22" s="320">
         <f>BS!D38/BS!D34</f>
-        <v>0.71348263347113683</v>
+        <v>0.67295465539958743</v>
       </c>
       <c r="E22" s="320">
         <f>BS!E38/BS!E34</f>
-        <v>0.72409647042440595</v>
+        <v>0.67135298842100888</v>
       </c>
       <c r="F22" s="320">
         <f>BS!F38/BS!F34</f>
-        <v>0.74058654307384197</v>
+        <v>0.6776892070532361</v>
       </c>
       <c r="G22" s="320">
         <f>BS!G38/BS!G34</f>
-        <v>0.76707192319871842</v>
+        <v>0.69459991244227026</v>
       </c>
       <c r="H22" s="321"/>
       <c r="I22" s="321"/>
@@ -22959,19 +22959,19 @@
       </c>
       <c r="D23" s="320">
         <f>PL!D13/BS!D33</f>
-        <v>0.35615708178459554</v>
+        <v>0.29632725291408707</v>
       </c>
       <c r="E23" s="320">
         <f>PL!E13/BS!E33</f>
-        <v>0.40007929692938654</v>
+        <v>0.33637147628085584</v>
       </c>
       <c r="F23" s="320">
         <f>PL!F13/BS!F33</f>
-        <v>0.39663563094838511</v>
+        <v>0.33637147628085623</v>
       </c>
       <c r="G23" s="320">
         <f>PL!G13/BS!G33</f>
-        <v>0.39320776160032367</v>
+        <v>0.33637147628085573</v>
       </c>
       <c r="H23" s="322"/>
       <c r="I23" s="322"/>
@@ -22986,19 +22986,19 @@
       </c>
       <c r="D24" s="320">
         <f>PL!D13/SUM(BS!D29,BS!D27)</f>
-        <v>0.45955191650171251</v>
+        <v>0.40399660061636467</v>
       </c>
       <c r="E24" s="320">
         <f>PL!E13/SUM(BS!E29,BS!E27)</f>
-        <v>0.51794395862455844</v>
+        <v>0.45859073583479248</v>
       </c>
       <c r="F24" s="320">
         <f>PL!F13/SUM(BS!F29,BS!F27)</f>
-        <v>0.51488911875885168</v>
+        <v>0.45859073583479321</v>
       </c>
       <c r="G24" s="320">
         <f>PL!G13/SUM(BS!G29,BS!G27)</f>
-        <v>0.51183166382788337</v>
+        <v>0.45859073583479237</v>
       </c>
       <c r="H24" s="321"/>
       <c r="I24" s="321"/>
@@ -23013,19 +23013,19 @@
       </c>
       <c r="D25" s="320">
         <f>BS!D18/BS!D21</f>
-        <v>0.45031216714775579</v>
+        <v>0.3525921470806353</v>
       </c>
       <c r="E25" s="320">
         <f>BS!E18/BS!E21</f>
-        <v>0.44083148317213461</v>
+        <v>0.35467899835031647</v>
       </c>
       <c r="F25" s="320">
         <f>BS!F18/BS!F21</f>
-        <v>0.42947066480134105</v>
+        <v>0.35333946319186227</v>
       </c>
       <c r="G25" s="320">
         <f>BS!G18/BS!G21</f>
-        <v>0.41712620916541071</v>
+        <v>0.34981342762412432</v>
       </c>
       <c r="I25" s="321"/>
     </row>
@@ -23039,19 +23039,19 @@
       </c>
       <c r="D26" s="323">
         <f>SUM(BS!D27,BS!D29,BS!D33)/BS!D21</f>
-        <v>0.49371640240309961</v>
+        <v>0.51747810485629586</v>
       </c>
       <c r="E26" s="323">
         <f>SUM(BS!E27,BS!E29,BS!E33)/BS!E21</f>
-        <v>0.49412949294858383</v>
+        <v>0.5205408498694587</v>
       </c>
       <c r="F26" s="323">
         <f>SUM(BS!F27,BS!F29,BS!F33)/BS!F21</f>
-        <v>0.48998715498181733</v>
+        <v>0.51857489537805945</v>
       </c>
       <c r="G26" s="323">
         <f>SUM(BS!G27,BS!G29,BS!G33)/BS!G21</f>
-        <v>0.4831739711676587</v>
+        <v>0.51339994687635138</v>
       </c>
     </row>
     <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -23064,19 +23064,19 @@
       </c>
       <c r="D27" s="324">
         <f>BS!D40/BS!D38</f>
-        <v>2.4015758101005744</v>
+        <v>2.485984221932783</v>
       </c>
       <c r="E27" s="324">
         <f>BS!E40/BS!E38</f>
-        <v>2.38103145208522</v>
+        <v>2.4895293791004844</v>
       </c>
       <c r="F27" s="324">
         <f>BS!F40/BS!F38</f>
-        <v>2.3502810837602439</v>
+        <v>2.4756026650450176</v>
       </c>
       <c r="G27" s="324">
         <f>BS!G40/BS!G38</f>
-        <v>2.3036587179856132</v>
+        <v>2.4396776937156788</v>
       </c>
     </row>
     <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
@@ -23120,19 +23120,19 @@
       </c>
       <c r="D36" s="314">
         <f>SUM(BS!D38,BS!D33)-BS!D18</f>
-        <v>7.143496060847248</v>
+        <v>9.4890720650088145</v>
       </c>
       <c r="E36" s="314">
         <f>SUM(BS!E38,BS!E33)-BS!E18</f>
-        <v>8.5058213636664348</v>
+        <v>10.632226740355264</v>
       </c>
       <c r="F36" s="314">
         <f>SUM(BS!F38,BS!F33)-BS!F18</f>
-        <v>10.057380321902116</v>
+        <v>11.930602271644556</v>
       </c>
       <c r="G36" s="314">
         <f>SUM(BS!G38,BS!G33)-BS!G18</f>
-        <v>11.813482408187369</v>
+        <v>13.379137041819728</v>
       </c>
     </row>
     <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -23145,19 +23145,19 @@
       </c>
       <c r="D37" s="314">
         <f>BS!D12-BS!D31</f>
-        <v>7.1434960608472462</v>
+        <v>9.4890720650088127</v>
       </c>
       <c r="E37" s="314">
         <f>BS!E12-BS!E31</f>
-        <v>8.505821363666433</v>
+        <v>10.632226740355263</v>
       </c>
       <c r="F37" s="314">
         <f>BS!F12-BS!F31</f>
-        <v>10.057380321902116</v>
+        <v>11.930602271644554</v>
       </c>
       <c r="G37" s="314">
         <f>BS!G12-BS!G31</f>
-        <v>11.813482408187367</v>
+        <v>13.379137041819728</v>
       </c>
     </row>
     <row r="38" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -23170,19 +23170,19 @@
       </c>
       <c r="D38" s="326">
         <f>SUM(BS!D9,BS!D10,-BS!D28)/SUM(BS!D27,BS!D29)</f>
-        <v>1.9169618656924248</v>
+        <v>1.6852199924359514</v>
       </c>
       <c r="E38" s="326">
         <f>SUM(BS!E9,BS!E10,-BS!E28)/SUM(BS!E27,BS!E29)</f>
-        <v>1.8722888572833676</v>
+        <v>1.6577359586102363</v>
       </c>
       <c r="F38" s="326">
         <f>SUM(BS!F9,BS!F10,-BS!F28)/SUM(BS!F27,BS!F29)</f>
-        <v>1.8612460744762518</v>
+        <v>1.6577359586102363</v>
       </c>
       <c r="G38" s="326">
         <f>SUM(BS!G9,BS!G10,-BS!G28)/SUM(BS!G27,BS!G29)</f>
-        <v>1.8501938386048282</v>
+        <v>1.657735958610236</v>
       </c>
       <c r="H38" s="320"/>
       <c r="I38" s="320"/>
@@ -23197,19 +23197,19 @@
       </c>
       <c r="D39" s="314">
         <f>BS!D12/SUM(BS!D27,BS!D29)</f>
-        <v>2.5499533616105028</v>
+        <v>2.9567411669766659</v>
       </c>
       <c r="E39" s="314">
         <f>BS!E12/SUM(BS!E27,BS!E29)</f>
-        <v>2.5966268257741252</v>
+        <v>2.9298697004060443</v>
       </c>
       <c r="F39" s="314">
         <f>BS!F12/SUM(BS!F27,BS!F29)</f>
-        <v>2.6759008903813175</v>
+        <v>2.9470818249243949</v>
       </c>
       <c r="G39" s="314">
         <f>BS!G12/SUM(BS!G27,BS!G29)</f>
-        <v>2.7766197821740102</v>
+        <v>2.9930191865818259</v>
       </c>
       <c r="H39" s="316"/>
       <c r="I39" s="316"/>
@@ -23258,19 +23258,19 @@
       </c>
       <c r="D51" s="320">
         <f>PL!D19/PL!D6</f>
-        <v>2.8981713730391372E-2</v>
+        <v>2.8956627568471224E-2</v>
       </c>
       <c r="E51" s="320">
         <f>PL!E19/PL!E6</f>
-        <v>3.8147674244140235E-2</v>
+        <v>3.6256627568471249E-2</v>
       </c>
       <c r="F51" s="320">
         <f>PL!F19/PL!F6</f>
-        <v>3.8136737697418509E-2</v>
+        <v>3.6256627568471339E-2</v>
       </c>
       <c r="G51" s="320">
         <f>PL!G19/PL!G6</f>
-        <v>3.80845109587509E-2</v>
+        <v>3.6256627568471235E-2</v>
       </c>
       <c r="H51" s="321"/>
       <c r="I51" s="321"/>
@@ -23285,19 +23285,19 @@
       </c>
       <c r="D52" s="320">
         <f>PL!D19/BS!D21</f>
-        <v>3.8798131532789326E-2</v>
+        <v>3.4614544929375615E-2</v>
       </c>
       <c r="E52" s="320">
         <f>PL!E19/BS!E21</f>
-        <v>5.0652947574798296E-2</v>
+        <v>4.3597430026482427E-2</v>
       </c>
       <c r="F52" s="320">
         <f>PL!F19/BS!F21</f>
-        <v>4.9840905421930787E-2</v>
+        <v>4.3432773278802649E-2</v>
       </c>
       <c r="G52" s="320">
         <f>PL!G19/BS!G21</f>
-        <v>4.8714063808673852E-2</v>
+        <v>4.2999350128149809E-2</v>
       </c>
       <c r="H52" s="321"/>
       <c r="I52" s="321"/>
@@ -23312,19 +23312,19 @@
       </c>
       <c r="D53" s="327">
         <f>PL!D21/BS!D38</f>
-        <v>9.3176654166247166E-2</v>
+        <v>8.6051212543811192E-2</v>
       </c>
       <c r="E53" s="327">
         <f>PL!E21/BS!E38</f>
-        <v>0.12060626131641851</v>
+        <v>0.10853708290420561</v>
       </c>
       <c r="F53" s="327">
         <f>PL!F21/BS!F38</f>
-        <v>0.11714013721064732</v>
+        <v>0.10752228927929985</v>
       </c>
       <c r="G53" s="327">
         <f>PL!G21/BS!G38</f>
-        <v>0.11222057778135897</v>
+        <v>0.10490455535191749</v>
       </c>
     </row>
     <row r="54" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
